--- a/EJEMPLOS EN EXCEL/BONILLA/R4XL-SVM.xlsx
+++ b/EJEMPLOS EN EXCEL/BONILLA/R4XL-SVM.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="M:\R4XCL\PROCESO DOCUMENTAL\EJEMPLOS EN EXCEL\BONILLA\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="M:\R4XCL\LIBRERIA\EJEMPLOS EN EXCEL\BONILLA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{719A2629-7432-4B28-BB9C-0EA07FD806DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7479B589-D83F-4796-BB34-716F96D83EDC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14317" yWindow="0" windowWidth="14565" windowHeight="15563" xr2:uid="{501212C7-ACB0-498E-BD31-969CA01024C6}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="10300" xr2:uid="{501212C7-ACB0-498E-BD31-969CA01024C6}"/>
   </bookViews>
   <sheets>
     <sheet name="Support Vector Machine" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -159,7 +159,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -170,17 +170,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -521,62 +516,58 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F59EA589-6E91-4E7C-9DED-4314F1473C9B}">
-  <dimension ref="A1:Q151"/>
+  <dimension ref="A1:O151"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H1" sqref="A1:H1"/>
+      <selection activeCell="M1" sqref="M1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="10.6640625" style="3"/>
-    <col min="2" max="8" width="10.6640625" style="1"/>
-    <col min="10" max="11" width="10.6640625" style="4"/>
-    <col min="12" max="12" width="13.06640625" style="4" customWidth="1"/>
-    <col min="13" max="14" width="10.6640625" style="10"/>
-    <col min="15" max="17" width="10.6640625" style="4"/>
+    <col min="1" max="1" width="10.6328125" style="3"/>
+    <col min="2" max="8" width="10.6328125" style="1"/>
+    <col min="10" max="11" width="10.6328125"/>
+    <col min="12" max="12" width="13.08984375" customWidth="1"/>
+    <col min="13" max="17" width="10.6328125"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="A1" s="11" t="s">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A1" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="B1" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="C1" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="12" t="s">
+      <c r="D1" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="12" t="s">
+      <c r="E1" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="F1" s="12" t="s">
+      <c r="F1" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="G1" s="12" t="s">
+      <c r="G1" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="H1" s="12" t="s">
+      <c r="H1" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="J1" s="9" t="s">
+      <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="4">
-        <v>1</v>
-      </c>
-      <c r="M1" s="10" t="str" cm="1">
-        <f t="array" ref="M1:N151">_xll.R.MR_SVM(F1:F151,B1:E151,H1:H151,K1)</f>
-        <v/>
-      </c>
-      <c r="N1" s="10" t="str">
-        <v>Y.estimado</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="K1">
+        <v>0</v>
+      </c>
+      <c r="M1" t="str" cm="1">
+        <f t="array" ref="M1:M2">_xll.R.MR_SVM(F1:F151,B1:E151,H1:H151,K1)</f>
+        <v>[0]: Funciones disponibles</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -601,14 +592,11 @@
       <c r="H2" s="1">
         <v>0</v>
       </c>
-      <c r="M2" s="10" t="str">
-        <v>1</v>
-      </c>
-      <c r="N2" s="10" t="str">
-        <v>setosa</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="M2" t="str">
+        <v>[1]: Kernel</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A3" s="3">
         <v>2</v>
       </c>
@@ -633,14 +621,8 @@
       <c r="H3" s="1">
         <v>0</v>
       </c>
-      <c r="M3" s="10" t="str">
-        <v>2</v>
-      </c>
-      <c r="N3" s="10" t="str">
-        <v>setosa</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.45">
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A4" s="3">
         <v>3</v>
       </c>
@@ -665,15 +647,9 @@
       <c r="H4" s="1">
         <v>0</v>
       </c>
-      <c r="J4" s="5"/>
-      <c r="M4" s="10" t="str">
-        <v>3</v>
-      </c>
-      <c r="N4" s="10" t="str">
-        <v>setosa</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="J4" s="4"/>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A5" s="3">
         <v>4</v>
       </c>
@@ -698,16 +674,10 @@
       <c r="H5" s="1">
         <v>0</v>
       </c>
-      <c r="L5" s="6"/>
-      <c r="M5" s="10" t="str">
-        <v>4</v>
-      </c>
-      <c r="N5" s="10" t="str">
-        <v>setosa</v>
-      </c>
-      <c r="O5" s="6"/>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="L5" s="5"/>
+      <c r="O5" s="5"/>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A6" s="3">
         <v>5</v>
       </c>
@@ -732,16 +702,10 @@
       <c r="H6" s="1">
         <v>0</v>
       </c>
-      <c r="L6" s="6"/>
-      <c r="M6" s="10" t="str">
-        <v>5</v>
-      </c>
-      <c r="N6" s="10" t="str">
-        <v>setosa</v>
-      </c>
-      <c r="O6" s="6"/>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="L6" s="5"/>
+      <c r="O6" s="5"/>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A7" s="3">
         <v>6</v>
       </c>
@@ -766,16 +730,10 @@
       <c r="H7" s="1">
         <v>0</v>
       </c>
-      <c r="L7" s="6"/>
-      <c r="M7" s="10" t="str">
-        <v>6</v>
-      </c>
-      <c r="N7" s="10" t="str">
-        <v>setosa</v>
-      </c>
-      <c r="O7" s="6"/>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="L7" s="5"/>
+      <c r="O7" s="5"/>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A8" s="3">
         <v>7</v>
       </c>
@@ -800,14 +758,8 @@
       <c r="H8" s="1">
         <v>0</v>
       </c>
-      <c r="M8" s="10" t="str">
-        <v>7</v>
-      </c>
-      <c r="N8" s="10" t="str">
-        <v>setosa</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.45">
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A9" s="3">
         <v>8</v>
       </c>
@@ -832,14 +784,8 @@
       <c r="H9" s="1">
         <v>0</v>
       </c>
-      <c r="M9" s="10" t="str">
-        <v>8</v>
-      </c>
-      <c r="N9" s="10" t="str">
-        <v>setosa</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.45">
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A10" s="3">
         <v>9</v>
       </c>
@@ -864,14 +810,8 @@
       <c r="H10" s="1">
         <v>0</v>
       </c>
-      <c r="M10" s="10" t="str">
-        <v>9</v>
-      </c>
-      <c r="N10" s="10" t="str">
-        <v>setosa</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.45">
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A11" s="3">
         <v>10</v>
       </c>
@@ -896,15 +836,9 @@
       <c r="H11" s="1">
         <v>0</v>
       </c>
-      <c r="K11" s="7"/>
-      <c r="M11" s="10" t="str">
-        <v>10</v>
-      </c>
-      <c r="N11" s="10" t="str">
-        <v>setosa</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="K11" s="6"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A12" s="3">
         <v>11</v>
       </c>
@@ -929,14 +863,8 @@
       <c r="H12" s="1">
         <v>0</v>
       </c>
-      <c r="M12" s="10" t="str">
-        <v>11</v>
-      </c>
-      <c r="N12" s="10" t="str">
-        <v>setosa</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.45">
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A13" s="3">
         <v>12</v>
       </c>
@@ -961,14 +889,8 @@
       <c r="H13" s="1">
         <v>0</v>
       </c>
-      <c r="M13" s="10" t="str">
-        <v>12</v>
-      </c>
-      <c r="N13" s="10" t="str">
-        <v>setosa</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.45">
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A14" s="3">
         <v>13</v>
       </c>
@@ -993,14 +915,8 @@
       <c r="H14" s="1">
         <v>0</v>
       </c>
-      <c r="M14" s="10" t="str">
-        <v>13</v>
-      </c>
-      <c r="N14" s="10" t="str">
-        <v>virginica</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.45">
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A15" s="3">
         <v>14</v>
       </c>
@@ -1025,15 +941,9 @@
       <c r="H15" s="1">
         <v>0</v>
       </c>
-      <c r="J15" s="8"/>
-      <c r="M15" s="10" t="str">
-        <v>14</v>
-      </c>
-      <c r="N15" s="10" t="str">
-        <v>virginica</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="J15" s="7"/>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A16" s="3">
         <v>15</v>
       </c>
@@ -1058,15 +968,9 @@
       <c r="H16" s="1">
         <v>0</v>
       </c>
-      <c r="J16" s="5"/>
-      <c r="M16" s="10" t="str">
-        <v>15</v>
-      </c>
-      <c r="N16" s="10" t="str">
-        <v>setosa</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="J16" s="4"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A17" s="3">
         <v>16</v>
       </c>
@@ -1091,14 +995,8 @@
       <c r="H17" s="1">
         <v>0</v>
       </c>
-      <c r="M17" s="10" t="str">
-        <v>16</v>
-      </c>
-      <c r="N17" s="10" t="str">
-        <v>setosa</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.45">
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A18" s="3">
         <v>17</v>
       </c>
@@ -1123,14 +1021,8 @@
       <c r="H18" s="1">
         <v>0</v>
       </c>
-      <c r="M18" s="10" t="str">
-        <v>17</v>
-      </c>
-      <c r="N18" s="10" t="str">
-        <v>setosa</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.45">
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A19" s="3">
         <v>18</v>
       </c>
@@ -1155,14 +1047,8 @@
       <c r="H19" s="1">
         <v>0</v>
       </c>
-      <c r="M19" s="10" t="str">
-        <v>18</v>
-      </c>
-      <c r="N19" s="10" t="str">
-        <v>setosa</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.45">
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A20" s="3">
         <v>19</v>
       </c>
@@ -1187,14 +1073,8 @@
       <c r="H20" s="1">
         <v>0</v>
       </c>
-      <c r="M20" s="10" t="str">
-        <v>19</v>
-      </c>
-      <c r="N20" s="10" t="str">
-        <v>virginica</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.45">
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A21" s="3">
         <v>20</v>
       </c>
@@ -1219,14 +1099,8 @@
       <c r="H21" s="1">
         <v>0</v>
       </c>
-      <c r="M21" s="10" t="str">
-        <v>20</v>
-      </c>
-      <c r="N21" s="10" t="str">
-        <v>setosa</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.45">
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A22" s="3">
         <v>21</v>
       </c>
@@ -1251,14 +1125,8 @@
       <c r="H22" s="1">
         <v>0</v>
       </c>
-      <c r="M22" s="10" t="str">
-        <v>21</v>
-      </c>
-      <c r="N22" s="10" t="str">
-        <v>setosa</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.45">
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A23" s="3">
         <v>22</v>
       </c>
@@ -1283,14 +1151,8 @@
       <c r="H23" s="1">
         <v>0</v>
       </c>
-      <c r="M23" s="10" t="str">
-        <v>22</v>
-      </c>
-      <c r="N23" s="10" t="str">
-        <v>setosa</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.45">
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A24" s="3">
         <v>23</v>
       </c>
@@ -1315,14 +1177,8 @@
       <c r="H24" s="1">
         <v>0</v>
       </c>
-      <c r="M24" s="10" t="str">
-        <v>23</v>
-      </c>
-      <c r="N24" s="10" t="str">
-        <v>setosa</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.45">
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A25" s="3">
         <v>24</v>
       </c>
@@ -1347,14 +1203,8 @@
       <c r="H25" s="1">
         <v>0</v>
       </c>
-      <c r="M25" s="10" t="str">
-        <v>24</v>
-      </c>
-      <c r="N25" s="10" t="str">
-        <v>virginica</v>
-      </c>
-    </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.45">
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A26" s="3">
         <v>25</v>
       </c>
@@ -1379,14 +1229,8 @@
       <c r="H26" s="1">
         <v>0</v>
       </c>
-      <c r="M26" s="10" t="str">
-        <v>25</v>
-      </c>
-      <c r="N26" s="10" t="str">
-        <v>setosa</v>
-      </c>
-    </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.45">
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A27" s="3">
         <v>26</v>
       </c>
@@ -1411,14 +1255,8 @@
       <c r="H27" s="1">
         <v>0</v>
       </c>
-      <c r="M27" s="10" t="str">
-        <v>26</v>
-      </c>
-      <c r="N27" s="10" t="str">
-        <v>setosa</v>
-      </c>
-    </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.45">
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A28" s="3">
         <v>27</v>
       </c>
@@ -1443,14 +1281,8 @@
       <c r="H28" s="1">
         <v>0</v>
       </c>
-      <c r="M28" s="10" t="str">
-        <v>27</v>
-      </c>
-      <c r="N28" s="10" t="str">
-        <v>setosa</v>
-      </c>
-    </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.45">
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A29" s="3">
         <v>28</v>
       </c>
@@ -1475,14 +1307,8 @@
       <c r="H29" s="1">
         <v>0</v>
       </c>
-      <c r="M29" s="10" t="str">
-        <v>28</v>
-      </c>
-      <c r="N29" s="10" t="str">
-        <v>setosa</v>
-      </c>
-    </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.45">
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A30" s="3">
         <v>29</v>
       </c>
@@ -1507,14 +1333,8 @@
       <c r="H30" s="1">
         <v>0</v>
       </c>
-      <c r="M30" s="10" t="str">
-        <v>29</v>
-      </c>
-      <c r="N30" s="10" t="str">
-        <v>setosa</v>
-      </c>
-    </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.45">
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A31" s="3">
         <v>30</v>
       </c>
@@ -1539,14 +1359,8 @@
       <c r="H31" s="1">
         <v>0</v>
       </c>
-      <c r="M31" s="10" t="str">
-        <v>30</v>
-      </c>
-      <c r="N31" s="10" t="str">
-        <v>setosa</v>
-      </c>
-    </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.45">
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A32" s="3">
         <v>31</v>
       </c>
@@ -1571,14 +1385,8 @@
       <c r="H32" s="1">
         <v>0</v>
       </c>
-      <c r="M32" s="10" t="str">
-        <v>31</v>
-      </c>
-      <c r="N32" s="10" t="str">
-        <v>setosa</v>
-      </c>
-    </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.45">
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A33" s="3">
         <v>32</v>
       </c>
@@ -1603,14 +1411,8 @@
       <c r="H33" s="1">
         <v>0</v>
       </c>
-      <c r="M33" s="10" t="str">
-        <v>32</v>
-      </c>
-      <c r="N33" s="10" t="str">
-        <v>setosa</v>
-      </c>
-    </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.45">
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A34" s="3">
         <v>33</v>
       </c>
@@ -1635,14 +1437,8 @@
       <c r="H34" s="1">
         <v>0</v>
       </c>
-      <c r="M34" s="10" t="str">
-        <v>33</v>
-      </c>
-      <c r="N34" s="10" t="str">
-        <v>setosa</v>
-      </c>
-    </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.45">
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A35" s="3">
         <v>34</v>
       </c>
@@ -1667,14 +1463,8 @@
       <c r="H35" s="1">
         <v>0</v>
       </c>
-      <c r="M35" s="10" t="str">
-        <v>34</v>
-      </c>
-      <c r="N35" s="10" t="str">
-        <v>setosa</v>
-      </c>
-    </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.45">
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A36" s="3">
         <v>35</v>
       </c>
@@ -1699,14 +1489,8 @@
       <c r="H36" s="1">
         <v>0</v>
       </c>
-      <c r="M36" s="10" t="str">
-        <v>35</v>
-      </c>
-      <c r="N36" s="10" t="str">
-        <v>setosa</v>
-      </c>
-    </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.45">
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A37" s="3">
         <v>36</v>
       </c>
@@ -1731,14 +1515,8 @@
       <c r="H37" s="1">
         <v>0</v>
       </c>
-      <c r="M37" s="10" t="str">
-        <v>36</v>
-      </c>
-      <c r="N37" s="10" t="str">
-        <v>setosa</v>
-      </c>
-    </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.45">
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A38" s="3">
         <v>37</v>
       </c>
@@ -1763,14 +1541,8 @@
       <c r="H38" s="1">
         <v>0</v>
       </c>
-      <c r="M38" s="10" t="str">
-        <v>37</v>
-      </c>
-      <c r="N38" s="10" t="str">
-        <v>setosa</v>
-      </c>
-    </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.45">
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A39" s="3">
         <v>38</v>
       </c>
@@ -1795,14 +1567,8 @@
       <c r="H39" s="1">
         <v>0</v>
       </c>
-      <c r="M39" s="10" t="str">
-        <v>38</v>
-      </c>
-      <c r="N39" s="10" t="str">
-        <v>setosa</v>
-      </c>
-    </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.45">
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A40" s="3">
         <v>39</v>
       </c>
@@ -1827,14 +1593,8 @@
       <c r="H40" s="1">
         <v>0</v>
       </c>
-      <c r="M40" s="10" t="str">
-        <v>39</v>
-      </c>
-      <c r="N40" s="10" t="str">
-        <v>setosa</v>
-      </c>
-    </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.45">
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A41" s="3">
         <v>40</v>
       </c>
@@ -1859,14 +1619,8 @@
       <c r="H41" s="1">
         <v>0</v>
       </c>
-      <c r="M41" s="10" t="str">
-        <v>40</v>
-      </c>
-      <c r="N41" s="10" t="str">
-        <v>setosa</v>
-      </c>
-    </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.45">
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A42" s="3">
         <v>41</v>
       </c>
@@ -1891,14 +1645,8 @@
       <c r="H42" s="1">
         <v>0</v>
       </c>
-      <c r="M42" s="10" t="str">
-        <v>41</v>
-      </c>
-      <c r="N42" s="10" t="str">
-        <v>setosa</v>
-      </c>
-    </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.45">
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A43" s="3">
         <v>42</v>
       </c>
@@ -1923,14 +1671,8 @@
       <c r="H43" s="1">
         <v>0</v>
       </c>
-      <c r="M43" s="10" t="str">
-        <v>42</v>
-      </c>
-      <c r="N43" s="10" t="str">
-        <v>virginica</v>
-      </c>
-    </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.45">
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A44" s="3">
         <v>43</v>
       </c>
@@ -1955,14 +1697,8 @@
       <c r="H44" s="1">
         <v>0</v>
       </c>
-      <c r="M44" s="10" t="str">
-        <v>43</v>
-      </c>
-      <c r="N44" s="10" t="str">
-        <v>setosa</v>
-      </c>
-    </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.45">
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A45" s="3">
         <v>44</v>
       </c>
@@ -1987,14 +1723,8 @@
       <c r="H45" s="1">
         <v>0</v>
       </c>
-      <c r="M45" s="10" t="str">
-        <v>44</v>
-      </c>
-      <c r="N45" s="10" t="str">
-        <v>setosa</v>
-      </c>
-    </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.45">
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A46" s="3">
         <v>45</v>
       </c>
@@ -2019,14 +1749,8 @@
       <c r="H46" s="1">
         <v>0</v>
       </c>
-      <c r="M46" s="10" t="str">
-        <v>45</v>
-      </c>
-      <c r="N46" s="10" t="str">
-        <v>setosa</v>
-      </c>
-    </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.45">
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A47" s="3">
         <v>46</v>
       </c>
@@ -2051,14 +1775,8 @@
       <c r="H47" s="1">
         <v>0</v>
       </c>
-      <c r="M47" s="10" t="str">
-        <v>46</v>
-      </c>
-      <c r="N47" s="10" t="str">
-        <v>setosa</v>
-      </c>
-    </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.45">
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A48" s="3">
         <v>47</v>
       </c>
@@ -2083,14 +1801,8 @@
       <c r="H48" s="1">
         <v>0</v>
       </c>
-      <c r="M48" s="10" t="str">
-        <v>47</v>
-      </c>
-      <c r="N48" s="10" t="str">
-        <v>setosa</v>
-      </c>
-    </row>
-    <row r="49" spans="1:14" x14ac:dyDescent="0.45">
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A49" s="3">
         <v>48</v>
       </c>
@@ -2115,14 +1827,8 @@
       <c r="H49" s="1">
         <v>0</v>
       </c>
-      <c r="M49" s="10" t="str">
-        <v>48</v>
-      </c>
-      <c r="N49" s="10" t="str">
-        <v>setosa</v>
-      </c>
-    </row>
-    <row r="50" spans="1:14" x14ac:dyDescent="0.45">
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A50" s="3">
         <v>49</v>
       </c>
@@ -2147,14 +1853,8 @@
       <c r="H50" s="1">
         <v>0</v>
       </c>
-      <c r="M50" s="10" t="str">
-        <v>49</v>
-      </c>
-      <c r="N50" s="10" t="str">
-        <v>setosa</v>
-      </c>
-    </row>
-    <row r="51" spans="1:14" x14ac:dyDescent="0.45">
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A51" s="3">
         <v>50</v>
       </c>
@@ -2179,14 +1879,8 @@
       <c r="H51" s="1">
         <v>0</v>
       </c>
-      <c r="M51" s="10" t="str">
-        <v>50</v>
-      </c>
-      <c r="N51" s="10" t="str">
-        <v>setosa</v>
-      </c>
-    </row>
-    <row r="52" spans="1:14" x14ac:dyDescent="0.45">
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A52" s="3">
         <v>51</v>
       </c>
@@ -2211,14 +1905,8 @@
       <c r="H52" s="1">
         <v>0</v>
       </c>
-      <c r="M52" s="10" t="str">
-        <v>51</v>
-      </c>
-      <c r="N52" s="10" t="str">
-        <v>versicolor</v>
-      </c>
-    </row>
-    <row r="53" spans="1:14" x14ac:dyDescent="0.45">
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A53" s="3">
         <v>52</v>
       </c>
@@ -2243,14 +1931,8 @@
       <c r="H53" s="1">
         <v>0</v>
       </c>
-      <c r="M53" s="10" t="str">
-        <v>52</v>
-      </c>
-      <c r="N53" s="10" t="str">
-        <v>versicolor</v>
-      </c>
-    </row>
-    <row r="54" spans="1:14" x14ac:dyDescent="0.45">
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A54" s="3">
         <v>53</v>
       </c>
@@ -2275,14 +1957,8 @@
       <c r="H54" s="1">
         <v>0</v>
       </c>
-      <c r="M54" s="10" t="str">
-        <v>53</v>
-      </c>
-      <c r="N54" s="10" t="str">
-        <v>versicolor</v>
-      </c>
-    </row>
-    <row r="55" spans="1:14" x14ac:dyDescent="0.45">
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A55" s="3">
         <v>54</v>
       </c>
@@ -2307,14 +1983,8 @@
       <c r="H55" s="1">
         <v>0</v>
       </c>
-      <c r="M55" s="10" t="str">
-        <v>54</v>
-      </c>
-      <c r="N55" s="10" t="str">
-        <v>versicolor</v>
-      </c>
-    </row>
-    <row r="56" spans="1:14" x14ac:dyDescent="0.45">
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A56" s="3">
         <v>55</v>
       </c>
@@ -2339,14 +2009,8 @@
       <c r="H56" s="1">
         <v>0</v>
       </c>
-      <c r="M56" s="10" t="str">
-        <v>55</v>
-      </c>
-      <c r="N56" s="10" t="str">
-        <v>versicolor</v>
-      </c>
-    </row>
-    <row r="57" spans="1:14" x14ac:dyDescent="0.45">
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A57" s="3">
         <v>56</v>
       </c>
@@ -2371,14 +2035,8 @@
       <c r="H57" s="1">
         <v>0</v>
       </c>
-      <c r="M57" s="10" t="str">
-        <v>56</v>
-      </c>
-      <c r="N57" s="10" t="str">
-        <v>versicolor</v>
-      </c>
-    </row>
-    <row r="58" spans="1:14" x14ac:dyDescent="0.45">
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A58" s="3">
         <v>57</v>
       </c>
@@ -2403,14 +2061,8 @@
       <c r="H58" s="1">
         <v>0</v>
       </c>
-      <c r="M58" s="10" t="str">
-        <v>57</v>
-      </c>
-      <c r="N58" s="10" t="str">
-        <v>virginica</v>
-      </c>
-    </row>
-    <row r="59" spans="1:14" x14ac:dyDescent="0.45">
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A59" s="3">
         <v>58</v>
       </c>
@@ -2435,14 +2087,8 @@
       <c r="H59" s="1">
         <v>0</v>
       </c>
-      <c r="M59" s="10" t="str">
-        <v>58</v>
-      </c>
-      <c r="N59" s="10" t="str">
-        <v>versicolor</v>
-      </c>
-    </row>
-    <row r="60" spans="1:14" x14ac:dyDescent="0.45">
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A60" s="3">
         <v>59</v>
       </c>
@@ -2467,14 +2113,8 @@
       <c r="H60" s="1">
         <v>0</v>
       </c>
-      <c r="M60" s="10" t="str">
-        <v>59</v>
-      </c>
-      <c r="N60" s="10" t="str">
-        <v>versicolor</v>
-      </c>
-    </row>
-    <row r="61" spans="1:14" x14ac:dyDescent="0.45">
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A61" s="3">
         <v>60</v>
       </c>
@@ -2499,14 +2139,8 @@
       <c r="H61" s="1">
         <v>0</v>
       </c>
-      <c r="M61" s="10" t="str">
-        <v>60</v>
-      </c>
-      <c r="N61" s="10" t="str">
-        <v>versicolor</v>
-      </c>
-    </row>
-    <row r="62" spans="1:14" x14ac:dyDescent="0.45">
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A62" s="3">
         <v>61</v>
       </c>
@@ -2531,14 +2165,8 @@
       <c r="H62" s="1">
         <v>0</v>
       </c>
-      <c r="M62" s="10" t="str">
-        <v>61</v>
-      </c>
-      <c r="N62" s="10" t="str">
-        <v>versicolor</v>
-      </c>
-    </row>
-    <row r="63" spans="1:14" x14ac:dyDescent="0.45">
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A63" s="3">
         <v>62</v>
       </c>
@@ -2563,14 +2191,8 @@
       <c r="H63" s="1">
         <v>0</v>
       </c>
-      <c r="M63" s="10" t="str">
-        <v>62</v>
-      </c>
-      <c r="N63" s="10" t="str">
-        <v>versicolor</v>
-      </c>
-    </row>
-    <row r="64" spans="1:14" x14ac:dyDescent="0.45">
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A64" s="3">
         <v>63</v>
       </c>
@@ -2595,14 +2217,8 @@
       <c r="H64" s="1">
         <v>0</v>
       </c>
-      <c r="M64" s="10" t="str">
-        <v>63</v>
-      </c>
-      <c r="N64" s="10" t="str">
-        <v>versicolor</v>
-      </c>
-    </row>
-    <row r="65" spans="1:14" x14ac:dyDescent="0.45">
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A65" s="3">
         <v>64</v>
       </c>
@@ -2627,14 +2243,8 @@
       <c r="H65" s="1">
         <v>0</v>
       </c>
-      <c r="M65" s="10" t="str">
-        <v>64</v>
-      </c>
-      <c r="N65" s="10" t="str">
-        <v>versicolor</v>
-      </c>
-    </row>
-    <row r="66" spans="1:14" x14ac:dyDescent="0.45">
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A66" s="3">
         <v>65</v>
       </c>
@@ -2659,14 +2269,8 @@
       <c r="H66" s="1">
         <v>0</v>
       </c>
-      <c r="M66" s="10" t="str">
-        <v>65</v>
-      </c>
-      <c r="N66" s="10" t="str">
-        <v>versicolor</v>
-      </c>
-    </row>
-    <row r="67" spans="1:14" x14ac:dyDescent="0.45">
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A67" s="3">
         <v>66</v>
       </c>
@@ -2691,14 +2295,8 @@
       <c r="H67" s="1">
         <v>0</v>
       </c>
-      <c r="M67" s="10" t="str">
-        <v>66</v>
-      </c>
-      <c r="N67" s="10" t="str">
-        <v>versicolor</v>
-      </c>
-    </row>
-    <row r="68" spans="1:14" x14ac:dyDescent="0.45">
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A68" s="3">
         <v>67</v>
       </c>
@@ -2723,14 +2321,8 @@
       <c r="H68" s="1">
         <v>0</v>
       </c>
-      <c r="M68" s="10" t="str">
-        <v>67</v>
-      </c>
-      <c r="N68" s="10" t="str">
-        <v>versicolor</v>
-      </c>
-    </row>
-    <row r="69" spans="1:14" x14ac:dyDescent="0.45">
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A69" s="3">
         <v>68</v>
       </c>
@@ -2755,14 +2347,8 @@
       <c r="H69" s="1">
         <v>0</v>
       </c>
-      <c r="M69" s="10" t="str">
-        <v>68</v>
-      </c>
-      <c r="N69" s="10" t="str">
-        <v>versicolor</v>
-      </c>
-    </row>
-    <row r="70" spans="1:14" x14ac:dyDescent="0.45">
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A70" s="3">
         <v>69</v>
       </c>
@@ -2787,14 +2373,8 @@
       <c r="H70" s="1">
         <v>0</v>
       </c>
-      <c r="M70" s="10" t="str">
-        <v>69</v>
-      </c>
-      <c r="N70" s="10" t="str">
-        <v>versicolor</v>
-      </c>
-    </row>
-    <row r="71" spans="1:14" x14ac:dyDescent="0.45">
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A71" s="3">
         <v>70</v>
       </c>
@@ -2819,14 +2399,8 @@
       <c r="H71" s="1">
         <v>0</v>
       </c>
-      <c r="M71" s="10" t="str">
-        <v>70</v>
-      </c>
-      <c r="N71" s="10" t="str">
-        <v>versicolor</v>
-      </c>
-    </row>
-    <row r="72" spans="1:14" x14ac:dyDescent="0.45">
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A72" s="3">
         <v>71</v>
       </c>
@@ -2851,14 +2425,8 @@
       <c r="H72" s="1">
         <v>0</v>
       </c>
-      <c r="M72" s="10" t="str">
-        <v>71</v>
-      </c>
-      <c r="N72" s="10" t="str">
-        <v>virginica</v>
-      </c>
-    </row>
-    <row r="73" spans="1:14" x14ac:dyDescent="0.45">
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A73" s="3">
         <v>72</v>
       </c>
@@ -2883,14 +2451,8 @@
       <c r="H73" s="1">
         <v>0</v>
       </c>
-      <c r="M73" s="10" t="str">
-        <v>72</v>
-      </c>
-      <c r="N73" s="10" t="str">
-        <v>versicolor</v>
-      </c>
-    </row>
-    <row r="74" spans="1:14" x14ac:dyDescent="0.45">
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A74" s="3">
         <v>73</v>
       </c>
@@ -2915,14 +2477,8 @@
       <c r="H74" s="1">
         <v>0</v>
       </c>
-      <c r="M74" s="10" t="str">
-        <v>73</v>
-      </c>
-      <c r="N74" s="10" t="str">
-        <v>versicolor</v>
-      </c>
-    </row>
-    <row r="75" spans="1:14" x14ac:dyDescent="0.45">
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A75" s="3">
         <v>74</v>
       </c>
@@ -2947,14 +2503,8 @@
       <c r="H75" s="1">
         <v>0</v>
       </c>
-      <c r="M75" s="10" t="str">
-        <v>74</v>
-      </c>
-      <c r="N75" s="10" t="str">
-        <v>versicolor</v>
-      </c>
-    </row>
-    <row r="76" spans="1:14" x14ac:dyDescent="0.45">
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A76" s="3">
         <v>75</v>
       </c>
@@ -2979,14 +2529,8 @@
       <c r="H76" s="1">
         <v>0</v>
       </c>
-      <c r="M76" s="10" t="str">
-        <v>75</v>
-      </c>
-      <c r="N76" s="10" t="str">
-        <v>versicolor</v>
-      </c>
-    </row>
-    <row r="77" spans="1:14" x14ac:dyDescent="0.45">
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A77" s="3">
         <v>76</v>
       </c>
@@ -3011,14 +2555,8 @@
       <c r="H77" s="1">
         <v>0</v>
       </c>
-      <c r="M77" s="10" t="str">
-        <v>76</v>
-      </c>
-      <c r="N77" s="10" t="str">
-        <v>versicolor</v>
-      </c>
-    </row>
-    <row r="78" spans="1:14" x14ac:dyDescent="0.45">
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A78" s="3">
         <v>77</v>
       </c>
@@ -3043,14 +2581,8 @@
       <c r="H78" s="1">
         <v>0</v>
       </c>
-      <c r="M78" s="10" t="str">
-        <v>77</v>
-      </c>
-      <c r="N78" s="10" t="str">
-        <v>versicolor</v>
-      </c>
-    </row>
-    <row r="79" spans="1:14" x14ac:dyDescent="0.45">
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A79" s="3">
         <v>78</v>
       </c>
@@ -3075,14 +2607,8 @@
       <c r="H79" s="1">
         <v>0</v>
       </c>
-      <c r="M79" s="10" t="str">
-        <v>78</v>
-      </c>
-      <c r="N79" s="10" t="str">
-        <v>virginica</v>
-      </c>
-    </row>
-    <row r="80" spans="1:14" x14ac:dyDescent="0.45">
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A80" s="3">
         <v>79</v>
       </c>
@@ -3107,14 +2633,8 @@
       <c r="H80" s="1">
         <v>0</v>
       </c>
-      <c r="M80" s="10" t="str">
-        <v>79</v>
-      </c>
-      <c r="N80" s="10" t="str">
-        <v>versicolor</v>
-      </c>
-    </row>
-    <row r="81" spans="1:14" x14ac:dyDescent="0.45">
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A81" s="3">
         <v>80</v>
       </c>
@@ -3139,14 +2659,8 @@
       <c r="H81" s="1">
         <v>0</v>
       </c>
-      <c r="M81" s="10" t="str">
-        <v>80</v>
-      </c>
-      <c r="N81" s="10" t="str">
-        <v>versicolor</v>
-      </c>
-    </row>
-    <row r="82" spans="1:14" x14ac:dyDescent="0.45">
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A82" s="3">
         <v>81</v>
       </c>
@@ -3171,14 +2685,8 @@
       <c r="H82" s="1">
         <v>0</v>
       </c>
-      <c r="M82" s="10" t="str">
-        <v>81</v>
-      </c>
-      <c r="N82" s="10" t="str">
-        <v>versicolor</v>
-      </c>
-    </row>
-    <row r="83" spans="1:14" x14ac:dyDescent="0.45">
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A83" s="3">
         <v>82</v>
       </c>
@@ -3203,14 +2711,8 @@
       <c r="H83" s="1">
         <v>0</v>
       </c>
-      <c r="M83" s="10" t="str">
-        <v>82</v>
-      </c>
-      <c r="N83" s="10" t="str">
-        <v>versicolor</v>
-      </c>
-    </row>
-    <row r="84" spans="1:14" x14ac:dyDescent="0.45">
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A84" s="3">
         <v>83</v>
       </c>
@@ -3235,14 +2737,8 @@
       <c r="H84" s="1">
         <v>0</v>
       </c>
-      <c r="M84" s="10" t="str">
-        <v>83</v>
-      </c>
-      <c r="N84" s="10" t="str">
-        <v>versicolor</v>
-      </c>
-    </row>
-    <row r="85" spans="1:14" x14ac:dyDescent="0.45">
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A85" s="3">
         <v>84</v>
       </c>
@@ -3267,14 +2763,8 @@
       <c r="H85" s="1">
         <v>0</v>
       </c>
-      <c r="M85" s="10" t="str">
-        <v>84</v>
-      </c>
-      <c r="N85" s="10" t="str">
-        <v>virginica</v>
-      </c>
-    </row>
-    <row r="86" spans="1:14" x14ac:dyDescent="0.45">
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A86" s="3">
         <v>85</v>
       </c>
@@ -3299,14 +2789,8 @@
       <c r="H86" s="1">
         <v>0</v>
       </c>
-      <c r="M86" s="10" t="str">
-        <v>85</v>
-      </c>
-      <c r="N86" s="10" t="str">
-        <v>versicolor</v>
-      </c>
-    </row>
-    <row r="87" spans="1:14" x14ac:dyDescent="0.45">
+    </row>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A87" s="3">
         <v>86</v>
       </c>
@@ -3331,14 +2815,8 @@
       <c r="H87" s="1">
         <v>0</v>
       </c>
-      <c r="M87" s="10" t="str">
-        <v>86</v>
-      </c>
-      <c r="N87" s="10" t="str">
-        <v>versicolor</v>
-      </c>
-    </row>
-    <row r="88" spans="1:14" x14ac:dyDescent="0.45">
+    </row>
+    <row r="88" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A88" s="3">
         <v>87</v>
       </c>
@@ -3363,14 +2841,8 @@
       <c r="H88" s="1">
         <v>0</v>
       </c>
-      <c r="M88" s="10" t="str">
-        <v>87</v>
-      </c>
-      <c r="N88" s="10" t="str">
-        <v>versicolor</v>
-      </c>
-    </row>
-    <row r="89" spans="1:14" x14ac:dyDescent="0.45">
+    </row>
+    <row r="89" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A89" s="3">
         <v>88</v>
       </c>
@@ -3395,14 +2867,8 @@
       <c r="H89" s="1">
         <v>0</v>
       </c>
-      <c r="M89" s="10" t="str">
-        <v>88</v>
-      </c>
-      <c r="N89" s="10" t="str">
-        <v>versicolor</v>
-      </c>
-    </row>
-    <row r="90" spans="1:14" x14ac:dyDescent="0.45">
+    </row>
+    <row r="90" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A90" s="3">
         <v>89</v>
       </c>
@@ -3427,14 +2893,8 @@
       <c r="H90" s="1">
         <v>0</v>
       </c>
-      <c r="M90" s="10" t="str">
-        <v>89</v>
-      </c>
-      <c r="N90" s="10" t="str">
-        <v>versicolor</v>
-      </c>
-    </row>
-    <row r="91" spans="1:14" x14ac:dyDescent="0.45">
+    </row>
+    <row r="91" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A91" s="3">
         <v>90</v>
       </c>
@@ -3459,14 +2919,8 @@
       <c r="H91" s="1">
         <v>0</v>
       </c>
-      <c r="M91" s="10" t="str">
-        <v>90</v>
-      </c>
-      <c r="N91" s="10" t="str">
-        <v>versicolor</v>
-      </c>
-    </row>
-    <row r="92" spans="1:14" x14ac:dyDescent="0.45">
+    </row>
+    <row r="92" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A92" s="3">
         <v>91</v>
       </c>
@@ -3491,14 +2945,8 @@
       <c r="H92" s="1">
         <v>0</v>
       </c>
-      <c r="M92" s="10" t="str">
-        <v>91</v>
-      </c>
-      <c r="N92" s="10" t="str">
-        <v>versicolor</v>
-      </c>
-    </row>
-    <row r="93" spans="1:14" x14ac:dyDescent="0.45">
+    </row>
+    <row r="93" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A93" s="3">
         <v>92</v>
       </c>
@@ -3523,14 +2971,8 @@
       <c r="H93" s="1">
         <v>0</v>
       </c>
-      <c r="M93" s="10" t="str">
-        <v>92</v>
-      </c>
-      <c r="N93" s="10" t="str">
-        <v>versicolor</v>
-      </c>
-    </row>
-    <row r="94" spans="1:14" x14ac:dyDescent="0.45">
+    </row>
+    <row r="94" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A94" s="3">
         <v>93</v>
       </c>
@@ -3555,14 +2997,8 @@
       <c r="H94" s="1">
         <v>0</v>
       </c>
-      <c r="M94" s="10" t="str">
-        <v>93</v>
-      </c>
-      <c r="N94" s="10" t="str">
-        <v>versicolor</v>
-      </c>
-    </row>
-    <row r="95" spans="1:14" x14ac:dyDescent="0.45">
+    </row>
+    <row r="95" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A95" s="3">
         <v>94</v>
       </c>
@@ -3587,14 +3023,8 @@
       <c r="H95" s="1">
         <v>0</v>
       </c>
-      <c r="M95" s="10" t="str">
-        <v>94</v>
-      </c>
-      <c r="N95" s="10" t="str">
-        <v>versicolor</v>
-      </c>
-    </row>
-    <row r="96" spans="1:14" x14ac:dyDescent="0.45">
+    </row>
+    <row r="96" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A96" s="3">
         <v>95</v>
       </c>
@@ -3619,14 +3049,8 @@
       <c r="H96" s="1">
         <v>0</v>
       </c>
-      <c r="M96" s="10" t="str">
-        <v>95</v>
-      </c>
-      <c r="N96" s="10" t="str">
-        <v>versicolor</v>
-      </c>
-    </row>
-    <row r="97" spans="1:14" x14ac:dyDescent="0.45">
+    </row>
+    <row r="97" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A97" s="3">
         <v>96</v>
       </c>
@@ -3651,14 +3075,8 @@
       <c r="H97" s="1">
         <v>0</v>
       </c>
-      <c r="M97" s="10" t="str">
-        <v>96</v>
-      </c>
-      <c r="N97" s="10" t="str">
-        <v>versicolor</v>
-      </c>
-    </row>
-    <row r="98" spans="1:14" x14ac:dyDescent="0.45">
+    </row>
+    <row r="98" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A98" s="3">
         <v>97</v>
       </c>
@@ -3683,14 +3101,8 @@
       <c r="H98" s="1">
         <v>0</v>
       </c>
-      <c r="M98" s="10" t="str">
-        <v>97</v>
-      </c>
-      <c r="N98" s="10" t="str">
-        <v>versicolor</v>
-      </c>
-    </row>
-    <row r="99" spans="1:14" x14ac:dyDescent="0.45">
+    </row>
+    <row r="99" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A99" s="3">
         <v>98</v>
       </c>
@@ -3715,14 +3127,8 @@
       <c r="H99" s="1">
         <v>0</v>
       </c>
-      <c r="M99" s="10" t="str">
-        <v>98</v>
-      </c>
-      <c r="N99" s="10" t="str">
-        <v>versicolor</v>
-      </c>
-    </row>
-    <row r="100" spans="1:14" x14ac:dyDescent="0.45">
+    </row>
+    <row r="100" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A100" s="3">
         <v>99</v>
       </c>
@@ -3747,14 +3153,8 @@
       <c r="H100" s="1">
         <v>0</v>
       </c>
-      <c r="M100" s="10" t="str">
-        <v>99</v>
-      </c>
-      <c r="N100" s="10" t="str">
-        <v>versicolor</v>
-      </c>
-    </row>
-    <row r="101" spans="1:14" x14ac:dyDescent="0.45">
+    </row>
+    <row r="101" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A101" s="3">
         <v>100</v>
       </c>
@@ -3779,14 +3179,8 @@
       <c r="H101" s="1">
         <v>0</v>
       </c>
-      <c r="M101" s="10" t="str">
-        <v>100</v>
-      </c>
-      <c r="N101" s="10" t="str">
-        <v>versicolor</v>
-      </c>
-    </row>
-    <row r="102" spans="1:14" x14ac:dyDescent="0.45">
+    </row>
+    <row r="102" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A102" s="3">
         <v>101</v>
       </c>
@@ -3811,14 +3205,8 @@
       <c r="H102" s="1">
         <v>0</v>
       </c>
-      <c r="M102" s="10" t="str">
-        <v>101</v>
-      </c>
-      <c r="N102" s="10" t="str">
-        <v>virginica</v>
-      </c>
-    </row>
-    <row r="103" spans="1:14" x14ac:dyDescent="0.45">
+    </row>
+    <row r="103" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A103" s="3">
         <v>102</v>
       </c>
@@ -3843,14 +3231,8 @@
       <c r="H103" s="1">
         <v>0</v>
       </c>
-      <c r="M103" s="10" t="str">
-        <v>102</v>
-      </c>
-      <c r="N103" s="10" t="str">
-        <v>virginica</v>
-      </c>
-    </row>
-    <row r="104" spans="1:14" x14ac:dyDescent="0.45">
+    </row>
+    <row r="104" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A104" s="3">
         <v>103</v>
       </c>
@@ -3875,14 +3257,8 @@
       <c r="H104" s="1">
         <v>0</v>
       </c>
-      <c r="M104" s="10" t="str">
-        <v>103</v>
-      </c>
-      <c r="N104" s="10" t="str">
-        <v>virginica</v>
-      </c>
-    </row>
-    <row r="105" spans="1:14" x14ac:dyDescent="0.45">
+    </row>
+    <row r="105" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A105" s="3">
         <v>104</v>
       </c>
@@ -3907,14 +3283,8 @@
       <c r="H105" s="1">
         <v>0</v>
       </c>
-      <c r="M105" s="10" t="str">
-        <v>104</v>
-      </c>
-      <c r="N105" s="10" t="str">
-        <v>virginica</v>
-      </c>
-    </row>
-    <row r="106" spans="1:14" x14ac:dyDescent="0.45">
+    </row>
+    <row r="106" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A106" s="3">
         <v>105</v>
       </c>
@@ -3939,14 +3309,8 @@
       <c r="H106" s="1">
         <v>0</v>
       </c>
-      <c r="M106" s="10" t="str">
-        <v>105</v>
-      </c>
-      <c r="N106" s="10" t="str">
-        <v>virginica</v>
-      </c>
-    </row>
-    <row r="107" spans="1:14" x14ac:dyDescent="0.45">
+    </row>
+    <row r="107" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A107" s="3">
         <v>106</v>
       </c>
@@ -3971,14 +3335,8 @@
       <c r="H107" s="1">
         <v>0</v>
       </c>
-      <c r="M107" s="10" t="str">
-        <v>106</v>
-      </c>
-      <c r="N107" s="10" t="str">
-        <v>virginica</v>
-      </c>
-    </row>
-    <row r="108" spans="1:14" x14ac:dyDescent="0.45">
+    </row>
+    <row r="108" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A108" s="3">
         <v>107</v>
       </c>
@@ -4003,14 +3361,8 @@
       <c r="H108" s="1">
         <v>0</v>
       </c>
-      <c r="M108" s="10" t="str">
-        <v>107</v>
-      </c>
-      <c r="N108" s="10" t="str">
-        <v>versicolor</v>
-      </c>
-    </row>
-    <row r="109" spans="1:14" x14ac:dyDescent="0.45">
+    </row>
+    <row r="109" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A109" s="3">
         <v>108</v>
       </c>
@@ -4035,14 +3387,8 @@
       <c r="H109" s="1">
         <v>0</v>
       </c>
-      <c r="M109" s="10" t="str">
-        <v>108</v>
-      </c>
-      <c r="N109" s="10" t="str">
-        <v>virginica</v>
-      </c>
-    </row>
-    <row r="110" spans="1:14" x14ac:dyDescent="0.45">
+    </row>
+    <row r="110" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A110" s="3">
         <v>109</v>
       </c>
@@ -4067,14 +3413,8 @@
       <c r="H110" s="1">
         <v>0</v>
       </c>
-      <c r="M110" s="10" t="str">
-        <v>109</v>
-      </c>
-      <c r="N110" s="10" t="str">
-        <v>virginica</v>
-      </c>
-    </row>
-    <row r="111" spans="1:14" x14ac:dyDescent="0.45">
+    </row>
+    <row r="111" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A111" s="3">
         <v>110</v>
       </c>
@@ -4099,14 +3439,8 @@
       <c r="H111" s="1">
         <v>0</v>
       </c>
-      <c r="M111" s="10" t="str">
-        <v>110</v>
-      </c>
-      <c r="N111" s="10" t="str">
-        <v>virginica</v>
-      </c>
-    </row>
-    <row r="112" spans="1:14" x14ac:dyDescent="0.45">
+    </row>
+    <row r="112" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A112" s="3">
         <v>111</v>
       </c>
@@ -4131,14 +3465,8 @@
       <c r="H112" s="1">
         <v>0</v>
       </c>
-      <c r="M112" s="10" t="str">
-        <v>111</v>
-      </c>
-      <c r="N112" s="10" t="str">
-        <v>virginica</v>
-      </c>
-    </row>
-    <row r="113" spans="1:14" x14ac:dyDescent="0.45">
+    </row>
+    <row r="113" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A113" s="3">
         <v>112</v>
       </c>
@@ -4163,14 +3491,8 @@
       <c r="H113" s="1">
         <v>0</v>
       </c>
-      <c r="M113" s="10" t="str">
-        <v>112</v>
-      </c>
-      <c r="N113" s="10" t="str">
-        <v>virginica</v>
-      </c>
-    </row>
-    <row r="114" spans="1:14" x14ac:dyDescent="0.45">
+    </row>
+    <row r="114" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A114" s="3">
         <v>113</v>
       </c>
@@ -4195,14 +3517,8 @@
       <c r="H114" s="1">
         <v>0</v>
       </c>
-      <c r="M114" s="10" t="str">
-        <v>113</v>
-      </c>
-      <c r="N114" s="10" t="str">
-        <v>virginica</v>
-      </c>
-    </row>
-    <row r="115" spans="1:14" x14ac:dyDescent="0.45">
+    </row>
+    <row r="115" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A115" s="3">
         <v>114</v>
       </c>
@@ -4227,14 +3543,8 @@
       <c r="H115" s="1">
         <v>0</v>
       </c>
-      <c r="M115" s="10" t="str">
-        <v>114</v>
-      </c>
-      <c r="N115" s="10" t="str">
-        <v>virginica</v>
-      </c>
-    </row>
-    <row r="116" spans="1:14" x14ac:dyDescent="0.45">
+    </row>
+    <row r="116" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A116" s="3">
         <v>115</v>
       </c>
@@ -4259,14 +3569,8 @@
       <c r="H116" s="1">
         <v>0</v>
       </c>
-      <c r="M116" s="10" t="str">
-        <v>115</v>
-      </c>
-      <c r="N116" s="10" t="str">
-        <v>virginica</v>
-      </c>
-    </row>
-    <row r="117" spans="1:14" x14ac:dyDescent="0.45">
+    </row>
+    <row r="117" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A117" s="3">
         <v>116</v>
       </c>
@@ -4291,14 +3595,8 @@
       <c r="H117" s="1">
         <v>0</v>
       </c>
-      <c r="M117" s="10" t="str">
-        <v>116</v>
-      </c>
-      <c r="N117" s="10" t="str">
-        <v>virginica</v>
-      </c>
-    </row>
-    <row r="118" spans="1:14" x14ac:dyDescent="0.45">
+    </row>
+    <row r="118" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A118" s="3">
         <v>117</v>
       </c>
@@ -4323,14 +3621,8 @@
       <c r="H118" s="1">
         <v>0</v>
       </c>
-      <c r="M118" s="10" t="str">
-        <v>117</v>
-      </c>
-      <c r="N118" s="10" t="str">
-        <v>virginica</v>
-      </c>
-    </row>
-    <row r="119" spans="1:14" x14ac:dyDescent="0.45">
+    </row>
+    <row r="119" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A119" s="3">
         <v>118</v>
       </c>
@@ -4355,14 +3647,8 @@
       <c r="H119" s="1">
         <v>0</v>
       </c>
-      <c r="M119" s="10" t="str">
-        <v>118</v>
-      </c>
-      <c r="N119" s="10" t="str">
-        <v>virginica</v>
-      </c>
-    </row>
-    <row r="120" spans="1:14" x14ac:dyDescent="0.45">
+    </row>
+    <row r="120" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A120" s="3">
         <v>119</v>
       </c>
@@ -4387,14 +3673,8 @@
       <c r="H120" s="1">
         <v>0</v>
       </c>
-      <c r="M120" s="10" t="str">
-        <v>119</v>
-      </c>
-      <c r="N120" s="10" t="str">
-        <v>virginica</v>
-      </c>
-    </row>
-    <row r="121" spans="1:14" x14ac:dyDescent="0.45">
+    </row>
+    <row r="121" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A121" s="3">
         <v>120</v>
       </c>
@@ -4419,14 +3699,8 @@
       <c r="H121" s="1">
         <v>0</v>
       </c>
-      <c r="M121" s="10" t="str">
-        <v>120</v>
-      </c>
-      <c r="N121" s="10" t="str">
-        <v>versicolor</v>
-      </c>
-    </row>
-    <row r="122" spans="1:14" x14ac:dyDescent="0.45">
+    </row>
+    <row r="122" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A122" s="3">
         <v>121</v>
       </c>
@@ -4451,14 +3725,8 @@
       <c r="H122" s="1">
         <v>0</v>
       </c>
-      <c r="M122" s="10" t="str">
-        <v>121</v>
-      </c>
-      <c r="N122" s="10" t="str">
-        <v>virginica</v>
-      </c>
-    </row>
-    <row r="123" spans="1:14" x14ac:dyDescent="0.45">
+    </row>
+    <row r="123" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A123" s="3">
         <v>122</v>
       </c>
@@ -4483,14 +3751,8 @@
       <c r="H123" s="1">
         <v>0</v>
       </c>
-      <c r="M123" s="10" t="str">
-        <v>122</v>
-      </c>
-      <c r="N123" s="10" t="str">
-        <v>virginica</v>
-      </c>
-    </row>
-    <row r="124" spans="1:14" x14ac:dyDescent="0.45">
+    </row>
+    <row r="124" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A124" s="3">
         <v>123</v>
       </c>
@@ -4515,14 +3777,8 @@
       <c r="H124" s="1">
         <v>0</v>
       </c>
-      <c r="M124" s="10" t="str">
-        <v>123</v>
-      </c>
-      <c r="N124" s="10" t="str">
-        <v>virginica</v>
-      </c>
-    </row>
-    <row r="125" spans="1:14" x14ac:dyDescent="0.45">
+    </row>
+    <row r="125" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A125" s="3">
         <v>124</v>
       </c>
@@ -4547,14 +3803,8 @@
       <c r="H125" s="1">
         <v>0</v>
       </c>
-      <c r="M125" s="10" t="str">
-        <v>124</v>
-      </c>
-      <c r="N125" s="10" t="str">
-        <v>virginica</v>
-      </c>
-    </row>
-    <row r="126" spans="1:14" x14ac:dyDescent="0.45">
+    </row>
+    <row r="126" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A126" s="3">
         <v>125</v>
       </c>
@@ -4579,14 +3829,8 @@
       <c r="H126" s="1">
         <v>0</v>
       </c>
-      <c r="M126" s="10" t="str">
-        <v>125</v>
-      </c>
-      <c r="N126" s="10" t="str">
-        <v>virginica</v>
-      </c>
-    </row>
-    <row r="127" spans="1:14" x14ac:dyDescent="0.45">
+    </row>
+    <row r="127" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A127" s="3">
         <v>126</v>
       </c>
@@ -4611,14 +3855,8 @@
       <c r="H127" s="1">
         <v>0</v>
       </c>
-      <c r="M127" s="10" t="str">
-        <v>126</v>
-      </c>
-      <c r="N127" s="10" t="str">
-        <v>virginica</v>
-      </c>
-    </row>
-    <row r="128" spans="1:14" x14ac:dyDescent="0.45">
+    </row>
+    <row r="128" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A128" s="3">
         <v>127</v>
       </c>
@@ -4643,14 +3881,8 @@
       <c r="H128" s="1">
         <v>0</v>
       </c>
-      <c r="M128" s="10" t="str">
-        <v>127</v>
-      </c>
-      <c r="N128" s="10" t="str">
-        <v>virginica</v>
-      </c>
-    </row>
-    <row r="129" spans="1:14" x14ac:dyDescent="0.45">
+    </row>
+    <row r="129" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A129" s="3">
         <v>128</v>
       </c>
@@ -4675,14 +3907,8 @@
       <c r="H129" s="1">
         <v>0</v>
       </c>
-      <c r="M129" s="10" t="str">
-        <v>128</v>
-      </c>
-      <c r="N129" s="10" t="str">
-        <v>virginica</v>
-      </c>
-    </row>
-    <row r="130" spans="1:14" x14ac:dyDescent="0.45">
+    </row>
+    <row r="130" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A130" s="3">
         <v>129</v>
       </c>
@@ -4707,14 +3933,8 @@
       <c r="H130" s="1">
         <v>0</v>
       </c>
-      <c r="M130" s="10" t="str">
-        <v>129</v>
-      </c>
-      <c r="N130" s="10" t="str">
-        <v>virginica</v>
-      </c>
-    </row>
-    <row r="131" spans="1:14" x14ac:dyDescent="0.45">
+    </row>
+    <row r="131" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A131" s="3">
         <v>130</v>
       </c>
@@ -4739,14 +3959,8 @@
       <c r="H131" s="1">
         <v>0</v>
       </c>
-      <c r="M131" s="10" t="str">
-        <v>130</v>
-      </c>
-      <c r="N131" s="10" t="str">
-        <v>virginica</v>
-      </c>
-    </row>
-    <row r="132" spans="1:14" x14ac:dyDescent="0.45">
+    </row>
+    <row r="132" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A132" s="3">
         <v>131</v>
       </c>
@@ -4771,14 +3985,8 @@
       <c r="H132" s="1">
         <v>0</v>
       </c>
-      <c r="M132" s="10" t="str">
-        <v>131</v>
-      </c>
-      <c r="N132" s="10" t="str">
-        <v>virginica</v>
-      </c>
-    </row>
-    <row r="133" spans="1:14" x14ac:dyDescent="0.45">
+    </row>
+    <row r="133" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A133" s="3">
         <v>132</v>
       </c>
@@ -4803,14 +4011,8 @@
       <c r="H133" s="1">
         <v>0</v>
       </c>
-      <c r="M133" s="10" t="str">
-        <v>132</v>
-      </c>
-      <c r="N133" s="10" t="str">
-        <v>virginica</v>
-      </c>
-    </row>
-    <row r="134" spans="1:14" x14ac:dyDescent="0.45">
+    </row>
+    <row r="134" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A134" s="3">
         <v>133</v>
       </c>
@@ -4835,14 +4037,8 @@
       <c r="H134" s="1">
         <v>0</v>
       </c>
-      <c r="M134" s="10" t="str">
-        <v>133</v>
-      </c>
-      <c r="N134" s="10" t="str">
-        <v>virginica</v>
-      </c>
-    </row>
-    <row r="135" spans="1:14" x14ac:dyDescent="0.45">
+    </row>
+    <row r="135" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A135" s="3">
         <v>134</v>
       </c>
@@ -4867,14 +4063,8 @@
       <c r="H135" s="1">
         <v>0</v>
       </c>
-      <c r="M135" s="10" t="str">
-        <v>134</v>
-      </c>
-      <c r="N135" s="10" t="str">
-        <v>virginica</v>
-      </c>
-    </row>
-    <row r="136" spans="1:14" x14ac:dyDescent="0.45">
+    </row>
+    <row r="136" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A136" s="3">
         <v>135</v>
       </c>
@@ -4899,14 +4089,8 @@
       <c r="H136" s="1">
         <v>0</v>
       </c>
-      <c r="M136" s="10" t="str">
-        <v>135</v>
-      </c>
-      <c r="N136" s="10" t="str">
-        <v>virginica</v>
-      </c>
-    </row>
-    <row r="137" spans="1:14" x14ac:dyDescent="0.45">
+    </row>
+    <row r="137" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A137" s="3">
         <v>136</v>
       </c>
@@ -4931,14 +4115,8 @@
       <c r="H137" s="1">
         <v>0</v>
       </c>
-      <c r="M137" s="10" t="str">
-        <v>136</v>
-      </c>
-      <c r="N137" s="10" t="str">
-        <v>virginica</v>
-      </c>
-    </row>
-    <row r="138" spans="1:14" x14ac:dyDescent="0.45">
+    </row>
+    <row r="138" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A138" s="3">
         <v>137</v>
       </c>
@@ -4963,14 +4141,8 @@
       <c r="H138" s="1">
         <v>0</v>
       </c>
-      <c r="M138" s="10" t="str">
-        <v>137</v>
-      </c>
-      <c r="N138" s="10" t="str">
-        <v>virginica</v>
-      </c>
-    </row>
-    <row r="139" spans="1:14" x14ac:dyDescent="0.45">
+    </row>
+    <row r="139" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A139" s="3">
         <v>138</v>
       </c>
@@ -4995,14 +4167,8 @@
       <c r="H139" s="1">
         <v>0</v>
       </c>
-      <c r="M139" s="10" t="str">
-        <v>138</v>
-      </c>
-      <c r="N139" s="10" t="str">
-        <v>virginica</v>
-      </c>
-    </row>
-    <row r="140" spans="1:14" x14ac:dyDescent="0.45">
+    </row>
+    <row r="140" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A140" s="3">
         <v>139</v>
       </c>
@@ -5027,14 +4193,8 @@
       <c r="H140" s="1">
         <v>0</v>
       </c>
-      <c r="M140" s="10" t="str">
-        <v>139</v>
-      </c>
-      <c r="N140" s="10" t="str">
-        <v>virginica</v>
-      </c>
-    </row>
-    <row r="141" spans="1:14" x14ac:dyDescent="0.45">
+    </row>
+    <row r="141" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A141" s="3">
         <v>140</v>
       </c>
@@ -5059,14 +4219,8 @@
       <c r="H141" s="1">
         <v>0</v>
       </c>
-      <c r="M141" s="10" t="str">
-        <v>140</v>
-      </c>
-      <c r="N141" s="10" t="str">
-        <v>virginica</v>
-      </c>
-    </row>
-    <row r="142" spans="1:14" x14ac:dyDescent="0.45">
+    </row>
+    <row r="142" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A142" s="3">
         <v>141</v>
       </c>
@@ -5091,14 +4245,8 @@
       <c r="H142" s="1">
         <v>0</v>
       </c>
-      <c r="M142" s="10" t="str">
-        <v>141</v>
-      </c>
-      <c r="N142" s="10" t="str">
-        <v>virginica</v>
-      </c>
-    </row>
-    <row r="143" spans="1:14" x14ac:dyDescent="0.45">
+    </row>
+    <row r="143" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A143" s="3">
         <v>142</v>
       </c>
@@ -5123,14 +4271,8 @@
       <c r="H143" s="1">
         <v>0</v>
       </c>
-      <c r="M143" s="10" t="str">
-        <v>142</v>
-      </c>
-      <c r="N143" s="10" t="str">
-        <v>virginica</v>
-      </c>
-    </row>
-    <row r="144" spans="1:14" x14ac:dyDescent="0.45">
+    </row>
+    <row r="144" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A144" s="3">
         <v>143</v>
       </c>
@@ -5155,14 +4297,8 @@
       <c r="H144" s="1">
         <v>0</v>
       </c>
-      <c r="M144" s="10" t="str">
-        <v>143</v>
-      </c>
-      <c r="N144" s="10" t="str">
-        <v>virginica</v>
-      </c>
-    </row>
-    <row r="145" spans="1:14" x14ac:dyDescent="0.45">
+    </row>
+    <row r="145" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A145" s="3">
         <v>144</v>
       </c>
@@ -5187,14 +4323,8 @@
       <c r="H145" s="1">
         <v>0</v>
       </c>
-      <c r="M145" s="10" t="str">
-        <v>144</v>
-      </c>
-      <c r="N145" s="10" t="str">
-        <v>virginica</v>
-      </c>
-    </row>
-    <row r="146" spans="1:14" x14ac:dyDescent="0.45">
+    </row>
+    <row r="146" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A146" s="3">
         <v>145</v>
       </c>
@@ -5219,14 +4349,8 @@
       <c r="H146" s="1">
         <v>0</v>
       </c>
-      <c r="M146" s="10" t="str">
-        <v>145</v>
-      </c>
-      <c r="N146" s="10" t="str">
-        <v>virginica</v>
-      </c>
-    </row>
-    <row r="147" spans="1:14" x14ac:dyDescent="0.45">
+    </row>
+    <row r="147" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A147" s="3">
         <v>146</v>
       </c>
@@ -5251,14 +4375,8 @@
       <c r="H147" s="1">
         <v>0</v>
       </c>
-      <c r="M147" s="10" t="str">
-        <v>146</v>
-      </c>
-      <c r="N147" s="10" t="str">
-        <v>virginica</v>
-      </c>
-    </row>
-    <row r="148" spans="1:14" x14ac:dyDescent="0.45">
+    </row>
+    <row r="148" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A148" s="3">
         <v>147</v>
       </c>
@@ -5283,14 +4401,8 @@
       <c r="H148" s="1">
         <v>0</v>
       </c>
-      <c r="M148" s="10" t="str">
-        <v>147</v>
-      </c>
-      <c r="N148" s="10" t="str">
-        <v>virginica</v>
-      </c>
-    </row>
-    <row r="149" spans="1:14" x14ac:dyDescent="0.45">
+    </row>
+    <row r="149" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A149" s="3">
         <v>148</v>
       </c>
@@ -5315,14 +4427,8 @@
       <c r="H149" s="1">
         <v>0</v>
       </c>
-      <c r="M149" s="10" t="str">
-        <v>148</v>
-      </c>
-      <c r="N149" s="10" t="str">
-        <v>virginica</v>
-      </c>
-    </row>
-    <row r="150" spans="1:14" x14ac:dyDescent="0.45">
+    </row>
+    <row r="150" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A150" s="3">
         <v>149</v>
       </c>
@@ -5347,14 +4453,8 @@
       <c r="H150" s="1">
         <v>0</v>
       </c>
-      <c r="M150" s="10" t="str">
-        <v>149</v>
-      </c>
-      <c r="N150" s="10" t="str">
-        <v>virginica</v>
-      </c>
-    </row>
-    <row r="151" spans="1:14" x14ac:dyDescent="0.45">
+    </row>
+    <row r="151" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A151" s="3">
         <v>150</v>
       </c>
@@ -5378,12 +4478,6 @@
       </c>
       <c r="H151" s="1">
         <v>0</v>
-      </c>
-      <c r="M151" s="10" t="str">
-        <v>150</v>
-      </c>
-      <c r="N151" s="10" t="str">
-        <v>virginica</v>
       </c>
     </row>
   </sheetData>

--- a/EJEMPLOS EN EXCEL/BONILLA/R4XL-SVM.xlsx
+++ b/EJEMPLOS EN EXCEL/BONILLA/R4XL-SVM.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="M:\R4XCL\LIBRERIA\EJEMPLOS EN EXCEL\BONILLA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7479B589-D83F-4796-BB34-716F96D83EDC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FB81DAC-527D-458B-9DB7-6984677117C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="10300" xr2:uid="{501212C7-ACB0-498E-BD31-969CA01024C6}"/>
+    <workbookView xWindow="-83" yWindow="0" windowWidth="14558" windowHeight="15563" xr2:uid="{501212C7-ACB0-498E-BD31-969CA01024C6}"/>
   </bookViews>
   <sheets>
     <sheet name="Support Vector Machine" sheetId="2" r:id="rId1"/>
@@ -518,20 +518,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F59EA589-6E91-4E7C-9DED-4314F1473C9B}">
   <dimension ref="A1:O151"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M1" sqref="M1"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="J1" sqref="J1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="10.6328125" style="3"/>
-    <col min="2" max="8" width="10.6328125" style="1"/>
-    <col min="10" max="11" width="10.6328125"/>
-    <col min="12" max="12" width="13.08984375" customWidth="1"/>
-    <col min="13" max="17" width="10.6328125"/>
+    <col min="1" max="1" width="10.59765625" style="3"/>
+    <col min="2" max="8" width="10.59765625" style="1"/>
+    <col min="10" max="11" width="10.59765625"/>
+    <col min="12" max="12" width="13.06640625" customWidth="1"/>
+    <col min="13" max="17" width="10.59765625"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A1" s="8" t="s">
         <v>7</v>
       </c>
@@ -560,14 +560,17 @@
         <v>9</v>
       </c>
       <c r="K1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M1" t="str" cm="1">
-        <f t="array" ref="M1:M2">_xll.R.MR_SVM(F1:F151,B1:E151,H1:H151,K1)</f>
-        <v>[0]: Funciones disponibles</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.35">
+        <f t="array" ref="M1:N151">_xll.R.MR_SVM(F1:F151,B1:E151,H1:H151,K1)</f>
+        <v/>
+      </c>
+      <c r="N1" t="str">
+        <v>Y.estimado</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -593,10 +596,13 @@
         <v>0</v>
       </c>
       <c r="M2" t="str">
-        <v>[1]: Kernel</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+      <c r="N2" t="str">
+        <v>setosa</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A3" s="3">
         <v>2</v>
       </c>
@@ -621,8 +627,14 @@
       <c r="H3" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="M3" t="str">
+        <v>2</v>
+      </c>
+      <c r="N3" t="str">
+        <v>setosa</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A4" s="3">
         <v>3</v>
       </c>
@@ -648,8 +660,14 @@
         <v>0</v>
       </c>
       <c r="J4" s="4"/>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="M4" t="str">
+        <v>3</v>
+      </c>
+      <c r="N4" t="str">
+        <v>setosa</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A5" s="3">
         <v>4</v>
       </c>
@@ -675,9 +693,15 @@
         <v>0</v>
       </c>
       <c r="L5" s="5"/>
+      <c r="M5" t="str">
+        <v>4</v>
+      </c>
+      <c r="N5" t="str">
+        <v>setosa</v>
+      </c>
       <c r="O5" s="5"/>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A6" s="3">
         <v>5</v>
       </c>
@@ -703,9 +727,15 @@
         <v>0</v>
       </c>
       <c r="L6" s="5"/>
+      <c r="M6" t="str">
+        <v>5</v>
+      </c>
+      <c r="N6" t="str">
+        <v>setosa</v>
+      </c>
       <c r="O6" s="5"/>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A7" s="3">
         <v>6</v>
       </c>
@@ -731,9 +761,15 @@
         <v>0</v>
       </c>
       <c r="L7" s="5"/>
+      <c r="M7" t="str">
+        <v>6</v>
+      </c>
+      <c r="N7" t="str">
+        <v>setosa</v>
+      </c>
       <c r="O7" s="5"/>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A8" s="3">
         <v>7</v>
       </c>
@@ -758,8 +794,14 @@
       <c r="H8" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="M8" t="str">
+        <v>7</v>
+      </c>
+      <c r="N8" t="str">
+        <v>setosa</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A9" s="3">
         <v>8</v>
       </c>
@@ -784,8 +826,14 @@
       <c r="H9" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="M9" t="str">
+        <v>8</v>
+      </c>
+      <c r="N9" t="str">
+        <v>setosa</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A10" s="3">
         <v>9</v>
       </c>
@@ -810,8 +858,14 @@
       <c r="H10" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="M10" t="str">
+        <v>9</v>
+      </c>
+      <c r="N10" t="str">
+        <v>setosa</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A11" s="3">
         <v>10</v>
       </c>
@@ -837,8 +891,14 @@
         <v>0</v>
       </c>
       <c r="K11" s="6"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="M11" t="str">
+        <v>10</v>
+      </c>
+      <c r="N11" t="str">
+        <v>setosa</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A12" s="3">
         <v>11</v>
       </c>
@@ -863,8 +923,14 @@
       <c r="H12" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="M12" t="str">
+        <v>11</v>
+      </c>
+      <c r="N12" t="str">
+        <v>setosa</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A13" s="3">
         <v>12</v>
       </c>
@@ -889,8 +955,14 @@
       <c r="H13" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="M13" t="str">
+        <v>12</v>
+      </c>
+      <c r="N13" t="str">
+        <v>setosa</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A14" s="3">
         <v>13</v>
       </c>
@@ -915,8 +987,14 @@
       <c r="H14" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="M14" t="str">
+        <v>13</v>
+      </c>
+      <c r="N14" t="str">
+        <v>virginica</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A15" s="3">
         <v>14</v>
       </c>
@@ -942,8 +1020,14 @@
         <v>0</v>
       </c>
       <c r="J15" s="7"/>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="M15" t="str">
+        <v>14</v>
+      </c>
+      <c r="N15" t="str">
+        <v>virginica</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A16" s="3">
         <v>15</v>
       </c>
@@ -969,8 +1053,14 @@
         <v>0</v>
       </c>
       <c r="J16" s="4"/>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="M16" t="str">
+        <v>15</v>
+      </c>
+      <c r="N16" t="str">
+        <v>setosa</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A17" s="3">
         <v>16</v>
       </c>
@@ -995,8 +1085,14 @@
       <c r="H17" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="M17" t="str">
+        <v>16</v>
+      </c>
+      <c r="N17" t="str">
+        <v>setosa</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A18" s="3">
         <v>17</v>
       </c>
@@ -1021,8 +1117,14 @@
       <c r="H18" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="M18" t="str">
+        <v>17</v>
+      </c>
+      <c r="N18" t="str">
+        <v>setosa</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A19" s="3">
         <v>18</v>
       </c>
@@ -1047,8 +1149,14 @@
       <c r="H19" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="M19" t="str">
+        <v>18</v>
+      </c>
+      <c r="N19" t="str">
+        <v>setosa</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A20" s="3">
         <v>19</v>
       </c>
@@ -1073,8 +1181,14 @@
       <c r="H20" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="M20" t="str">
+        <v>19</v>
+      </c>
+      <c r="N20" t="str">
+        <v>virginica</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A21" s="3">
         <v>20</v>
       </c>
@@ -1099,8 +1213,14 @@
       <c r="H21" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="M21" t="str">
+        <v>20</v>
+      </c>
+      <c r="N21" t="str">
+        <v>setosa</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A22" s="3">
         <v>21</v>
       </c>
@@ -1125,8 +1245,14 @@
       <c r="H22" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="M22" t="str">
+        <v>21</v>
+      </c>
+      <c r="N22" t="str">
+        <v>setosa</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A23" s="3">
         <v>22</v>
       </c>
@@ -1151,8 +1277,14 @@
       <c r="H23" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="M23" t="str">
+        <v>22</v>
+      </c>
+      <c r="N23" t="str">
+        <v>setosa</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A24" s="3">
         <v>23</v>
       </c>
@@ -1177,8 +1309,14 @@
       <c r="H24" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="M24" t="str">
+        <v>23</v>
+      </c>
+      <c r="N24" t="str">
+        <v>setosa</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A25" s="3">
         <v>24</v>
       </c>
@@ -1203,8 +1341,14 @@
       <c r="H25" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="M25" t="str">
+        <v>24</v>
+      </c>
+      <c r="N25" t="str">
+        <v>virginica</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A26" s="3">
         <v>25</v>
       </c>
@@ -1229,8 +1373,14 @@
       <c r="H26" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="M26" t="str">
+        <v>25</v>
+      </c>
+      <c r="N26" t="str">
+        <v>setosa</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A27" s="3">
         <v>26</v>
       </c>
@@ -1255,8 +1405,14 @@
       <c r="H27" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="M27" t="str">
+        <v>26</v>
+      </c>
+      <c r="N27" t="str">
+        <v>setosa</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A28" s="3">
         <v>27</v>
       </c>
@@ -1281,8 +1437,14 @@
       <c r="H28" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="M28" t="str">
+        <v>27</v>
+      </c>
+      <c r="N28" t="str">
+        <v>setosa</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A29" s="3">
         <v>28</v>
       </c>
@@ -1307,8 +1469,14 @@
       <c r="H29" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="M29" t="str">
+        <v>28</v>
+      </c>
+      <c r="N29" t="str">
+        <v>setosa</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A30" s="3">
         <v>29</v>
       </c>
@@ -1333,8 +1501,14 @@
       <c r="H30" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="M30" t="str">
+        <v>29</v>
+      </c>
+      <c r="N30" t="str">
+        <v>setosa</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A31" s="3">
         <v>30</v>
       </c>
@@ -1359,8 +1533,14 @@
       <c r="H31" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="M31" t="str">
+        <v>30</v>
+      </c>
+      <c r="N31" t="str">
+        <v>setosa</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A32" s="3">
         <v>31</v>
       </c>
@@ -1385,8 +1565,14 @@
       <c r="H32" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="M32" t="str">
+        <v>31</v>
+      </c>
+      <c r="N32" t="str">
+        <v>setosa</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A33" s="3">
         <v>32</v>
       </c>
@@ -1411,8 +1597,14 @@
       <c r="H33" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="M33" t="str">
+        <v>32</v>
+      </c>
+      <c r="N33" t="str">
+        <v>setosa</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A34" s="3">
         <v>33</v>
       </c>
@@ -1437,8 +1629,14 @@
       <c r="H34" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="M34" t="str">
+        <v>33</v>
+      </c>
+      <c r="N34" t="str">
+        <v>setosa</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A35" s="3">
         <v>34</v>
       </c>
@@ -1463,8 +1661,14 @@
       <c r="H35" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="M35" t="str">
+        <v>34</v>
+      </c>
+      <c r="N35" t="str">
+        <v>setosa</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A36" s="3">
         <v>35</v>
       </c>
@@ -1489,8 +1693,14 @@
       <c r="H36" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="M36" t="str">
+        <v>35</v>
+      </c>
+      <c r="N36" t="str">
+        <v>setosa</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A37" s="3">
         <v>36</v>
       </c>
@@ -1515,8 +1725,14 @@
       <c r="H37" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="M37" t="str">
+        <v>36</v>
+      </c>
+      <c r="N37" t="str">
+        <v>setosa</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A38" s="3">
         <v>37</v>
       </c>
@@ -1541,8 +1757,14 @@
       <c r="H38" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="M38" t="str">
+        <v>37</v>
+      </c>
+      <c r="N38" t="str">
+        <v>setosa</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A39" s="3">
         <v>38</v>
       </c>
@@ -1567,8 +1789,14 @@
       <c r="H39" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="M39" t="str">
+        <v>38</v>
+      </c>
+      <c r="N39" t="str">
+        <v>setosa</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A40" s="3">
         <v>39</v>
       </c>
@@ -1593,8 +1821,14 @@
       <c r="H40" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="M40" t="str">
+        <v>39</v>
+      </c>
+      <c r="N40" t="str">
+        <v>setosa</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A41" s="3">
         <v>40</v>
       </c>
@@ -1619,8 +1853,14 @@
       <c r="H41" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="M41" t="str">
+        <v>40</v>
+      </c>
+      <c r="N41" t="str">
+        <v>setosa</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A42" s="3">
         <v>41</v>
       </c>
@@ -1645,8 +1885,14 @@
       <c r="H42" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="M42" t="str">
+        <v>41</v>
+      </c>
+      <c r="N42" t="str">
+        <v>setosa</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A43" s="3">
         <v>42</v>
       </c>
@@ -1671,8 +1917,14 @@
       <c r="H43" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="M43" t="str">
+        <v>42</v>
+      </c>
+      <c r="N43" t="str">
+        <v>virginica</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A44" s="3">
         <v>43</v>
       </c>
@@ -1697,8 +1949,14 @@
       <c r="H44" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="M44" t="str">
+        <v>43</v>
+      </c>
+      <c r="N44" t="str">
+        <v>setosa</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A45" s="3">
         <v>44</v>
       </c>
@@ -1723,8 +1981,14 @@
       <c r="H45" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="M45" t="str">
+        <v>44</v>
+      </c>
+      <c r="N45" t="str">
+        <v>setosa</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A46" s="3">
         <v>45</v>
       </c>
@@ -1749,8 +2013,14 @@
       <c r="H46" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="M46" t="str">
+        <v>45</v>
+      </c>
+      <c r="N46" t="str">
+        <v>setosa</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A47" s="3">
         <v>46</v>
       </c>
@@ -1775,8 +2045,14 @@
       <c r="H47" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="M47" t="str">
+        <v>46</v>
+      </c>
+      <c r="N47" t="str">
+        <v>setosa</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A48" s="3">
         <v>47</v>
       </c>
@@ -1801,8 +2077,14 @@
       <c r="H48" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="M48" t="str">
+        <v>47</v>
+      </c>
+      <c r="N48" t="str">
+        <v>setosa</v>
+      </c>
+    </row>
+    <row r="49" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A49" s="3">
         <v>48</v>
       </c>
@@ -1827,8 +2109,14 @@
       <c r="H49" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="M49" t="str">
+        <v>48</v>
+      </c>
+      <c r="N49" t="str">
+        <v>setosa</v>
+      </c>
+    </row>
+    <row r="50" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A50" s="3">
         <v>49</v>
       </c>
@@ -1853,8 +2141,14 @@
       <c r="H50" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="M50" t="str">
+        <v>49</v>
+      </c>
+      <c r="N50" t="str">
+        <v>setosa</v>
+      </c>
+    </row>
+    <row r="51" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A51" s="3">
         <v>50</v>
       </c>
@@ -1879,8 +2173,14 @@
       <c r="H51" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="M51" t="str">
+        <v>50</v>
+      </c>
+      <c r="N51" t="str">
+        <v>setosa</v>
+      </c>
+    </row>
+    <row r="52" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A52" s="3">
         <v>51</v>
       </c>
@@ -1905,8 +2205,14 @@
       <c r="H52" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="M52" t="str">
+        <v>51</v>
+      </c>
+      <c r="N52" t="str">
+        <v>versicolor</v>
+      </c>
+    </row>
+    <row r="53" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A53" s="3">
         <v>52</v>
       </c>
@@ -1931,8 +2237,14 @@
       <c r="H53" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="M53" t="str">
+        <v>52</v>
+      </c>
+      <c r="N53" t="str">
+        <v>versicolor</v>
+      </c>
+    </row>
+    <row r="54" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A54" s="3">
         <v>53</v>
       </c>
@@ -1957,8 +2269,14 @@
       <c r="H54" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="M54" t="str">
+        <v>53</v>
+      </c>
+      <c r="N54" t="str">
+        <v>versicolor</v>
+      </c>
+    </row>
+    <row r="55" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A55" s="3">
         <v>54</v>
       </c>
@@ -1983,8 +2301,14 @@
       <c r="H55" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="M55" t="str">
+        <v>54</v>
+      </c>
+      <c r="N55" t="str">
+        <v>versicolor</v>
+      </c>
+    </row>
+    <row r="56" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A56" s="3">
         <v>55</v>
       </c>
@@ -2009,8 +2333,14 @@
       <c r="H56" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="M56" t="str">
+        <v>55</v>
+      </c>
+      <c r="N56" t="str">
+        <v>versicolor</v>
+      </c>
+    </row>
+    <row r="57" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A57" s="3">
         <v>56</v>
       </c>
@@ -2035,8 +2365,14 @@
       <c r="H57" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="M57" t="str">
+        <v>56</v>
+      </c>
+      <c r="N57" t="str">
+        <v>versicolor</v>
+      </c>
+    </row>
+    <row r="58" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A58" s="3">
         <v>57</v>
       </c>
@@ -2061,8 +2397,14 @@
       <c r="H58" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="M58" t="str">
+        <v>57</v>
+      </c>
+      <c r="N58" t="str">
+        <v>virginica</v>
+      </c>
+    </row>
+    <row r="59" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A59" s="3">
         <v>58</v>
       </c>
@@ -2087,8 +2429,14 @@
       <c r="H59" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="M59" t="str">
+        <v>58</v>
+      </c>
+      <c r="N59" t="str">
+        <v>versicolor</v>
+      </c>
+    </row>
+    <row r="60" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A60" s="3">
         <v>59</v>
       </c>
@@ -2113,8 +2461,14 @@
       <c r="H60" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="M60" t="str">
+        <v>59</v>
+      </c>
+      <c r="N60" t="str">
+        <v>versicolor</v>
+      </c>
+    </row>
+    <row r="61" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A61" s="3">
         <v>60</v>
       </c>
@@ -2139,8 +2493,14 @@
       <c r="H61" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="M61" t="str">
+        <v>60</v>
+      </c>
+      <c r="N61" t="str">
+        <v>versicolor</v>
+      </c>
+    </row>
+    <row r="62" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A62" s="3">
         <v>61</v>
       </c>
@@ -2165,8 +2525,14 @@
       <c r="H62" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="M62" t="str">
+        <v>61</v>
+      </c>
+      <c r="N62" t="str">
+        <v>versicolor</v>
+      </c>
+    </row>
+    <row r="63" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A63" s="3">
         <v>62</v>
       </c>
@@ -2191,8 +2557,14 @@
       <c r="H63" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="M63" t="str">
+        <v>62</v>
+      </c>
+      <c r="N63" t="str">
+        <v>versicolor</v>
+      </c>
+    </row>
+    <row r="64" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A64" s="3">
         <v>63</v>
       </c>
@@ -2217,8 +2589,14 @@
       <c r="H64" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="M64" t="str">
+        <v>63</v>
+      </c>
+      <c r="N64" t="str">
+        <v>versicolor</v>
+      </c>
+    </row>
+    <row r="65" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A65" s="3">
         <v>64</v>
       </c>
@@ -2243,8 +2621,14 @@
       <c r="H65" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="M65" t="str">
+        <v>64</v>
+      </c>
+      <c r="N65" t="str">
+        <v>versicolor</v>
+      </c>
+    </row>
+    <row r="66" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A66" s="3">
         <v>65</v>
       </c>
@@ -2269,8 +2653,14 @@
       <c r="H66" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="M66" t="str">
+        <v>65</v>
+      </c>
+      <c r="N66" t="str">
+        <v>versicolor</v>
+      </c>
+    </row>
+    <row r="67" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A67" s="3">
         <v>66</v>
       </c>
@@ -2295,8 +2685,14 @@
       <c r="H67" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="M67" t="str">
+        <v>66</v>
+      </c>
+      <c r="N67" t="str">
+        <v>versicolor</v>
+      </c>
+    </row>
+    <row r="68" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A68" s="3">
         <v>67</v>
       </c>
@@ -2321,8 +2717,14 @@
       <c r="H68" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="M68" t="str">
+        <v>67</v>
+      </c>
+      <c r="N68" t="str">
+        <v>versicolor</v>
+      </c>
+    </row>
+    <row r="69" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A69" s="3">
         <v>68</v>
       </c>
@@ -2347,8 +2749,14 @@
       <c r="H69" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="M69" t="str">
+        <v>68</v>
+      </c>
+      <c r="N69" t="str">
+        <v>versicolor</v>
+      </c>
+    </row>
+    <row r="70" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A70" s="3">
         <v>69</v>
       </c>
@@ -2373,8 +2781,14 @@
       <c r="H70" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="M70" t="str">
+        <v>69</v>
+      </c>
+      <c r="N70" t="str">
+        <v>versicolor</v>
+      </c>
+    </row>
+    <row r="71" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A71" s="3">
         <v>70</v>
       </c>
@@ -2399,8 +2813,14 @@
       <c r="H71" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="M71" t="str">
+        <v>70</v>
+      </c>
+      <c r="N71" t="str">
+        <v>versicolor</v>
+      </c>
+    </row>
+    <row r="72" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A72" s="3">
         <v>71</v>
       </c>
@@ -2425,8 +2845,14 @@
       <c r="H72" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="M72" t="str">
+        <v>71</v>
+      </c>
+      <c r="N72" t="str">
+        <v>virginica</v>
+      </c>
+    </row>
+    <row r="73" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A73" s="3">
         <v>72</v>
       </c>
@@ -2451,8 +2877,14 @@
       <c r="H73" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="M73" t="str">
+        <v>72</v>
+      </c>
+      <c r="N73" t="str">
+        <v>versicolor</v>
+      </c>
+    </row>
+    <row r="74" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A74" s="3">
         <v>73</v>
       </c>
@@ -2477,8 +2909,14 @@
       <c r="H74" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="M74" t="str">
+        <v>73</v>
+      </c>
+      <c r="N74" t="str">
+        <v>versicolor</v>
+      </c>
+    </row>
+    <row r="75" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A75" s="3">
         <v>74</v>
       </c>
@@ -2503,8 +2941,14 @@
       <c r="H75" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="M75" t="str">
+        <v>74</v>
+      </c>
+      <c r="N75" t="str">
+        <v>versicolor</v>
+      </c>
+    </row>
+    <row r="76" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A76" s="3">
         <v>75</v>
       </c>
@@ -2529,8 +2973,14 @@
       <c r="H76" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="M76" t="str">
+        <v>75</v>
+      </c>
+      <c r="N76" t="str">
+        <v>versicolor</v>
+      </c>
+    </row>
+    <row r="77" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A77" s="3">
         <v>76</v>
       </c>
@@ -2555,8 +3005,14 @@
       <c r="H77" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="M77" t="str">
+        <v>76</v>
+      </c>
+      <c r="N77" t="str">
+        <v>versicolor</v>
+      </c>
+    </row>
+    <row r="78" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A78" s="3">
         <v>77</v>
       </c>
@@ -2581,8 +3037,14 @@
       <c r="H78" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="M78" t="str">
+        <v>77</v>
+      </c>
+      <c r="N78" t="str">
+        <v>versicolor</v>
+      </c>
+    </row>
+    <row r="79" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A79" s="3">
         <v>78</v>
       </c>
@@ -2607,8 +3069,14 @@
       <c r="H79" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="M79" t="str">
+        <v>78</v>
+      </c>
+      <c r="N79" t="str">
+        <v>virginica</v>
+      </c>
+    </row>
+    <row r="80" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A80" s="3">
         <v>79</v>
       </c>
@@ -2633,8 +3101,14 @@
       <c r="H80" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="M80" t="str">
+        <v>79</v>
+      </c>
+      <c r="N80" t="str">
+        <v>versicolor</v>
+      </c>
+    </row>
+    <row r="81" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A81" s="3">
         <v>80</v>
       </c>
@@ -2659,8 +3133,14 @@
       <c r="H81" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="M81" t="str">
+        <v>80</v>
+      </c>
+      <c r="N81" t="str">
+        <v>versicolor</v>
+      </c>
+    </row>
+    <row r="82" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A82" s="3">
         <v>81</v>
       </c>
@@ -2685,8 +3165,14 @@
       <c r="H82" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="M82" t="str">
+        <v>81</v>
+      </c>
+      <c r="N82" t="str">
+        <v>versicolor</v>
+      </c>
+    </row>
+    <row r="83" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A83" s="3">
         <v>82</v>
       </c>
@@ -2711,8 +3197,14 @@
       <c r="H83" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="M83" t="str">
+        <v>82</v>
+      </c>
+      <c r="N83" t="str">
+        <v>versicolor</v>
+      </c>
+    </row>
+    <row r="84" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A84" s="3">
         <v>83</v>
       </c>
@@ -2737,8 +3229,14 @@
       <c r="H84" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="M84" t="str">
+        <v>83</v>
+      </c>
+      <c r="N84" t="str">
+        <v>versicolor</v>
+      </c>
+    </row>
+    <row r="85" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A85" s="3">
         <v>84</v>
       </c>
@@ -2763,8 +3261,14 @@
       <c r="H85" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="M85" t="str">
+        <v>84</v>
+      </c>
+      <c r="N85" t="str">
+        <v>virginica</v>
+      </c>
+    </row>
+    <row r="86" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A86" s="3">
         <v>85</v>
       </c>
@@ -2789,8 +3293,14 @@
       <c r="H86" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="M86" t="str">
+        <v>85</v>
+      </c>
+      <c r="N86" t="str">
+        <v>versicolor</v>
+      </c>
+    </row>
+    <row r="87" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A87" s="3">
         <v>86</v>
       </c>
@@ -2815,8 +3325,14 @@
       <c r="H87" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="M87" t="str">
+        <v>86</v>
+      </c>
+      <c r="N87" t="str">
+        <v>versicolor</v>
+      </c>
+    </row>
+    <row r="88" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A88" s="3">
         <v>87</v>
       </c>
@@ -2841,8 +3357,14 @@
       <c r="H88" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="M88" t="str">
+        <v>87</v>
+      </c>
+      <c r="N88" t="str">
+        <v>versicolor</v>
+      </c>
+    </row>
+    <row r="89" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A89" s="3">
         <v>88</v>
       </c>
@@ -2867,8 +3389,14 @@
       <c r="H89" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="M89" t="str">
+        <v>88</v>
+      </c>
+      <c r="N89" t="str">
+        <v>versicolor</v>
+      </c>
+    </row>
+    <row r="90" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A90" s="3">
         <v>89</v>
       </c>
@@ -2893,8 +3421,14 @@
       <c r="H90" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="M90" t="str">
+        <v>89</v>
+      </c>
+      <c r="N90" t="str">
+        <v>versicolor</v>
+      </c>
+    </row>
+    <row r="91" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A91" s="3">
         <v>90</v>
       </c>
@@ -2919,8 +3453,14 @@
       <c r="H91" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="M91" t="str">
+        <v>90</v>
+      </c>
+      <c r="N91" t="str">
+        <v>versicolor</v>
+      </c>
+    </row>
+    <row r="92" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A92" s="3">
         <v>91</v>
       </c>
@@ -2945,8 +3485,14 @@
       <c r="H92" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="M92" t="str">
+        <v>91</v>
+      </c>
+      <c r="N92" t="str">
+        <v>versicolor</v>
+      </c>
+    </row>
+    <row r="93" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A93" s="3">
         <v>92</v>
       </c>
@@ -2971,8 +3517,14 @@
       <c r="H93" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="M93" t="str">
+        <v>92</v>
+      </c>
+      <c r="N93" t="str">
+        <v>versicolor</v>
+      </c>
+    </row>
+    <row r="94" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A94" s="3">
         <v>93</v>
       </c>
@@ -2997,8 +3549,14 @@
       <c r="H94" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="M94" t="str">
+        <v>93</v>
+      </c>
+      <c r="N94" t="str">
+        <v>versicolor</v>
+      </c>
+    </row>
+    <row r="95" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A95" s="3">
         <v>94</v>
       </c>
@@ -3023,8 +3581,14 @@
       <c r="H95" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="M95" t="str">
+        <v>94</v>
+      </c>
+      <c r="N95" t="str">
+        <v>versicolor</v>
+      </c>
+    </row>
+    <row r="96" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A96" s="3">
         <v>95</v>
       </c>
@@ -3049,8 +3613,14 @@
       <c r="H96" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="M96" t="str">
+        <v>95</v>
+      </c>
+      <c r="N96" t="str">
+        <v>versicolor</v>
+      </c>
+    </row>
+    <row r="97" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A97" s="3">
         <v>96</v>
       </c>
@@ -3075,8 +3645,14 @@
       <c r="H97" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="M97" t="str">
+        <v>96</v>
+      </c>
+      <c r="N97" t="str">
+        <v>versicolor</v>
+      </c>
+    </row>
+    <row r="98" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A98" s="3">
         <v>97</v>
       </c>
@@ -3101,8 +3677,14 @@
       <c r="H98" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="M98" t="str">
+        <v>97</v>
+      </c>
+      <c r="N98" t="str">
+        <v>versicolor</v>
+      </c>
+    </row>
+    <row r="99" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A99" s="3">
         <v>98</v>
       </c>
@@ -3127,8 +3709,14 @@
       <c r="H99" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="M99" t="str">
+        <v>98</v>
+      </c>
+      <c r="N99" t="str">
+        <v>versicolor</v>
+      </c>
+    </row>
+    <row r="100" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A100" s="3">
         <v>99</v>
       </c>
@@ -3153,8 +3741,14 @@
       <c r="H100" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="M100" t="str">
+        <v>99</v>
+      </c>
+      <c r="N100" t="str">
+        <v>versicolor</v>
+      </c>
+    </row>
+    <row r="101" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A101" s="3">
         <v>100</v>
       </c>
@@ -3179,8 +3773,14 @@
       <c r="H101" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="M101" t="str">
+        <v>100</v>
+      </c>
+      <c r="N101" t="str">
+        <v>versicolor</v>
+      </c>
+    </row>
+    <row r="102" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A102" s="3">
         <v>101</v>
       </c>
@@ -3205,8 +3805,14 @@
       <c r="H102" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="M102" t="str">
+        <v>101</v>
+      </c>
+      <c r="N102" t="str">
+        <v>virginica</v>
+      </c>
+    </row>
+    <row r="103" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A103" s="3">
         <v>102</v>
       </c>
@@ -3231,8 +3837,14 @@
       <c r="H103" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="M103" t="str">
+        <v>102</v>
+      </c>
+      <c r="N103" t="str">
+        <v>virginica</v>
+      </c>
+    </row>
+    <row r="104" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A104" s="3">
         <v>103</v>
       </c>
@@ -3257,8 +3869,14 @@
       <c r="H104" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="M104" t="str">
+        <v>103</v>
+      </c>
+      <c r="N104" t="str">
+        <v>virginica</v>
+      </c>
+    </row>
+    <row r="105" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A105" s="3">
         <v>104</v>
       </c>
@@ -3283,8 +3901,14 @@
       <c r="H105" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="M105" t="str">
+        <v>104</v>
+      </c>
+      <c r="N105" t="str">
+        <v>virginica</v>
+      </c>
+    </row>
+    <row r="106" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A106" s="3">
         <v>105</v>
       </c>
@@ -3309,8 +3933,14 @@
       <c r="H106" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="M106" t="str">
+        <v>105</v>
+      </c>
+      <c r="N106" t="str">
+        <v>virginica</v>
+      </c>
+    </row>
+    <row r="107" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A107" s="3">
         <v>106</v>
       </c>
@@ -3335,8 +3965,14 @@
       <c r="H107" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="M107" t="str">
+        <v>106</v>
+      </c>
+      <c r="N107" t="str">
+        <v>virginica</v>
+      </c>
+    </row>
+    <row r="108" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A108" s="3">
         <v>107</v>
       </c>
@@ -3361,8 +3997,14 @@
       <c r="H108" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="M108" t="str">
+        <v>107</v>
+      </c>
+      <c r="N108" t="str">
+        <v>versicolor</v>
+      </c>
+    </row>
+    <row r="109" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A109" s="3">
         <v>108</v>
       </c>
@@ -3387,8 +4029,14 @@
       <c r="H109" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="M109" t="str">
+        <v>108</v>
+      </c>
+      <c r="N109" t="str">
+        <v>virginica</v>
+      </c>
+    </row>
+    <row r="110" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A110" s="3">
         <v>109</v>
       </c>
@@ -3413,8 +4061,14 @@
       <c r="H110" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="M110" t="str">
+        <v>109</v>
+      </c>
+      <c r="N110" t="str">
+        <v>virginica</v>
+      </c>
+    </row>
+    <row r="111" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A111" s="3">
         <v>110</v>
       </c>
@@ -3439,8 +4093,14 @@
       <c r="H111" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="M111" t="str">
+        <v>110</v>
+      </c>
+      <c r="N111" t="str">
+        <v>virginica</v>
+      </c>
+    </row>
+    <row r="112" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A112" s="3">
         <v>111</v>
       </c>
@@ -3465,8 +4125,14 @@
       <c r="H112" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="M112" t="str">
+        <v>111</v>
+      </c>
+      <c r="N112" t="str">
+        <v>virginica</v>
+      </c>
+    </row>
+    <row r="113" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A113" s="3">
         <v>112</v>
       </c>
@@ -3491,8 +4157,14 @@
       <c r="H113" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="114" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="M113" t="str">
+        <v>112</v>
+      </c>
+      <c r="N113" t="str">
+        <v>virginica</v>
+      </c>
+    </row>
+    <row r="114" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A114" s="3">
         <v>113</v>
       </c>
@@ -3517,8 +4189,14 @@
       <c r="H114" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="M114" t="str">
+        <v>113</v>
+      </c>
+      <c r="N114" t="str">
+        <v>virginica</v>
+      </c>
+    </row>
+    <row r="115" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A115" s="3">
         <v>114</v>
       </c>
@@ -3543,8 +4221,14 @@
       <c r="H115" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="116" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="M115" t="str">
+        <v>114</v>
+      </c>
+      <c r="N115" t="str">
+        <v>virginica</v>
+      </c>
+    </row>
+    <row r="116" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A116" s="3">
         <v>115</v>
       </c>
@@ -3569,8 +4253,14 @@
       <c r="H116" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="117" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="M116" t="str">
+        <v>115</v>
+      </c>
+      <c r="N116" t="str">
+        <v>virginica</v>
+      </c>
+    </row>
+    <row r="117" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A117" s="3">
         <v>116</v>
       </c>
@@ -3595,8 +4285,14 @@
       <c r="H117" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="118" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="M117" t="str">
+        <v>116</v>
+      </c>
+      <c r="N117" t="str">
+        <v>virginica</v>
+      </c>
+    </row>
+    <row r="118" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A118" s="3">
         <v>117</v>
       </c>
@@ -3621,8 +4317,14 @@
       <c r="H118" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="119" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="M118" t="str">
+        <v>117</v>
+      </c>
+      <c r="N118" t="str">
+        <v>virginica</v>
+      </c>
+    </row>
+    <row r="119" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A119" s="3">
         <v>118</v>
       </c>
@@ -3647,8 +4349,14 @@
       <c r="H119" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="120" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="M119" t="str">
+        <v>118</v>
+      </c>
+      <c r="N119" t="str">
+        <v>virginica</v>
+      </c>
+    </row>
+    <row r="120" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A120" s="3">
         <v>119</v>
       </c>
@@ -3673,8 +4381,14 @@
       <c r="H120" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="121" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="M120" t="str">
+        <v>119</v>
+      </c>
+      <c r="N120" t="str">
+        <v>virginica</v>
+      </c>
+    </row>
+    <row r="121" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A121" s="3">
         <v>120</v>
       </c>
@@ -3699,8 +4413,14 @@
       <c r="H121" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="122" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="M121" t="str">
+        <v>120</v>
+      </c>
+      <c r="N121" t="str">
+        <v>versicolor</v>
+      </c>
+    </row>
+    <row r="122" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A122" s="3">
         <v>121</v>
       </c>
@@ -3725,8 +4445,14 @@
       <c r="H122" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="123" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="M122" t="str">
+        <v>121</v>
+      </c>
+      <c r="N122" t="str">
+        <v>virginica</v>
+      </c>
+    </row>
+    <row r="123" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A123" s="3">
         <v>122</v>
       </c>
@@ -3751,8 +4477,14 @@
       <c r="H123" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="124" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="M123" t="str">
+        <v>122</v>
+      </c>
+      <c r="N123" t="str">
+        <v>virginica</v>
+      </c>
+    </row>
+    <row r="124" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A124" s="3">
         <v>123</v>
       </c>
@@ -3777,8 +4509,14 @@
       <c r="H124" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="125" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="M124" t="str">
+        <v>123</v>
+      </c>
+      <c r="N124" t="str">
+        <v>virginica</v>
+      </c>
+    </row>
+    <row r="125" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A125" s="3">
         <v>124</v>
       </c>
@@ -3803,8 +4541,14 @@
       <c r="H125" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="126" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="M125" t="str">
+        <v>124</v>
+      </c>
+      <c r="N125" t="str">
+        <v>virginica</v>
+      </c>
+    </row>
+    <row r="126" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A126" s="3">
         <v>125</v>
       </c>
@@ -3829,8 +4573,14 @@
       <c r="H126" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="127" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="M126" t="str">
+        <v>125</v>
+      </c>
+      <c r="N126" t="str">
+        <v>virginica</v>
+      </c>
+    </row>
+    <row r="127" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A127" s="3">
         <v>126</v>
       </c>
@@ -3855,8 +4605,14 @@
       <c r="H127" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="128" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="M127" t="str">
+        <v>126</v>
+      </c>
+      <c r="N127" t="str">
+        <v>virginica</v>
+      </c>
+    </row>
+    <row r="128" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A128" s="3">
         <v>127</v>
       </c>
@@ -3881,8 +4637,14 @@
       <c r="H128" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="129" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="M128" t="str">
+        <v>127</v>
+      </c>
+      <c r="N128" t="str">
+        <v>virginica</v>
+      </c>
+    </row>
+    <row r="129" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A129" s="3">
         <v>128</v>
       </c>
@@ -3907,8 +4669,14 @@
       <c r="H129" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="130" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="M129" t="str">
+        <v>128</v>
+      </c>
+      <c r="N129" t="str">
+        <v>virginica</v>
+      </c>
+    </row>
+    <row r="130" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A130" s="3">
         <v>129</v>
       </c>
@@ -3933,8 +4701,14 @@
       <c r="H130" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="131" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="M130" t="str">
+        <v>129</v>
+      </c>
+      <c r="N130" t="str">
+        <v>virginica</v>
+      </c>
+    </row>
+    <row r="131" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A131" s="3">
         <v>130</v>
       </c>
@@ -3959,8 +4733,14 @@
       <c r="H131" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="132" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="M131" t="str">
+        <v>130</v>
+      </c>
+      <c r="N131" t="str">
+        <v>virginica</v>
+      </c>
+    </row>
+    <row r="132" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A132" s="3">
         <v>131</v>
       </c>
@@ -3985,8 +4765,14 @@
       <c r="H132" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="133" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="M132" t="str">
+        <v>131</v>
+      </c>
+      <c r="N132" t="str">
+        <v>virginica</v>
+      </c>
+    </row>
+    <row r="133" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A133" s="3">
         <v>132</v>
       </c>
@@ -4011,8 +4797,14 @@
       <c r="H133" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="134" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="M133" t="str">
+        <v>132</v>
+      </c>
+      <c r="N133" t="str">
+        <v>virginica</v>
+      </c>
+    </row>
+    <row r="134" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A134" s="3">
         <v>133</v>
       </c>
@@ -4037,8 +4829,14 @@
       <c r="H134" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="135" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="M134" t="str">
+        <v>133</v>
+      </c>
+      <c r="N134" t="str">
+        <v>virginica</v>
+      </c>
+    </row>
+    <row r="135" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A135" s="3">
         <v>134</v>
       </c>
@@ -4063,8 +4861,14 @@
       <c r="H135" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="136" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="M135" t="str">
+        <v>134</v>
+      </c>
+      <c r="N135" t="str">
+        <v>virginica</v>
+      </c>
+    </row>
+    <row r="136" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A136" s="3">
         <v>135</v>
       </c>
@@ -4089,8 +4893,14 @@
       <c r="H136" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="137" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="M136" t="str">
+        <v>135</v>
+      </c>
+      <c r="N136" t="str">
+        <v>virginica</v>
+      </c>
+    </row>
+    <row r="137" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A137" s="3">
         <v>136</v>
       </c>
@@ -4115,8 +4925,14 @@
       <c r="H137" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="138" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="M137" t="str">
+        <v>136</v>
+      </c>
+      <c r="N137" t="str">
+        <v>virginica</v>
+      </c>
+    </row>
+    <row r="138" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A138" s="3">
         <v>137</v>
       </c>
@@ -4141,8 +4957,14 @@
       <c r="H138" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="139" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="M138" t="str">
+        <v>137</v>
+      </c>
+      <c r="N138" t="str">
+        <v>virginica</v>
+      </c>
+    </row>
+    <row r="139" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A139" s="3">
         <v>138</v>
       </c>
@@ -4167,8 +4989,14 @@
       <c r="H139" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="140" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="M139" t="str">
+        <v>138</v>
+      </c>
+      <c r="N139" t="str">
+        <v>virginica</v>
+      </c>
+    </row>
+    <row r="140" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A140" s="3">
         <v>139</v>
       </c>
@@ -4193,8 +5021,14 @@
       <c r="H140" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="141" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="M140" t="str">
+        <v>139</v>
+      </c>
+      <c r="N140" t="str">
+        <v>virginica</v>
+      </c>
+    </row>
+    <row r="141" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A141" s="3">
         <v>140</v>
       </c>
@@ -4219,8 +5053,14 @@
       <c r="H141" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="142" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="M141" t="str">
+        <v>140</v>
+      </c>
+      <c r="N141" t="str">
+        <v>virginica</v>
+      </c>
+    </row>
+    <row r="142" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A142" s="3">
         <v>141</v>
       </c>
@@ -4245,8 +5085,14 @@
       <c r="H142" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="143" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="M142" t="str">
+        <v>141</v>
+      </c>
+      <c r="N142" t="str">
+        <v>virginica</v>
+      </c>
+    </row>
+    <row r="143" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A143" s="3">
         <v>142</v>
       </c>
@@ -4271,8 +5117,14 @@
       <c r="H143" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="144" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="M143" t="str">
+        <v>142</v>
+      </c>
+      <c r="N143" t="str">
+        <v>virginica</v>
+      </c>
+    </row>
+    <row r="144" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A144" s="3">
         <v>143</v>
       </c>
@@ -4297,8 +5149,14 @@
       <c r="H144" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="145" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="M144" t="str">
+        <v>143</v>
+      </c>
+      <c r="N144" t="str">
+        <v>virginica</v>
+      </c>
+    </row>
+    <row r="145" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A145" s="3">
         <v>144</v>
       </c>
@@ -4323,8 +5181,14 @@
       <c r="H145" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="146" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="M145" t="str">
+        <v>144</v>
+      </c>
+      <c r="N145" t="str">
+        <v>virginica</v>
+      </c>
+    </row>
+    <row r="146" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A146" s="3">
         <v>145</v>
       </c>
@@ -4349,8 +5213,14 @@
       <c r="H146" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="147" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="M146" t="str">
+        <v>145</v>
+      </c>
+      <c r="N146" t="str">
+        <v>virginica</v>
+      </c>
+    </row>
+    <row r="147" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A147" s="3">
         <v>146</v>
       </c>
@@ -4375,8 +5245,14 @@
       <c r="H147" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="148" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="M147" t="str">
+        <v>146</v>
+      </c>
+      <c r="N147" t="str">
+        <v>virginica</v>
+      </c>
+    </row>
+    <row r="148" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A148" s="3">
         <v>147</v>
       </c>
@@ -4401,8 +5277,14 @@
       <c r="H148" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="149" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="M148" t="str">
+        <v>147</v>
+      </c>
+      <c r="N148" t="str">
+        <v>virginica</v>
+      </c>
+    </row>
+    <row r="149" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A149" s="3">
         <v>148</v>
       </c>
@@ -4427,8 +5309,14 @@
       <c r="H149" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="150" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="M149" t="str">
+        <v>148</v>
+      </c>
+      <c r="N149" t="str">
+        <v>virginica</v>
+      </c>
+    </row>
+    <row r="150" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A150" s="3">
         <v>149</v>
       </c>
@@ -4453,8 +5341,14 @@
       <c r="H150" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="151" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="M150" t="str">
+        <v>149</v>
+      </c>
+      <c r="N150" t="str">
+        <v>virginica</v>
+      </c>
+    </row>
+    <row r="151" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A151" s="3">
         <v>150</v>
       </c>
@@ -4478,6 +5372,12 @@
       </c>
       <c r="H151" s="1">
         <v>0</v>
+      </c>
+      <c r="M151" t="str">
+        <v>150</v>
+      </c>
+      <c r="N151" t="str">
+        <v>virginica</v>
       </c>
     </row>
   </sheetData>

--- a/EJEMPLOS EN EXCEL/BONILLA/R4XL-SVM.xlsx
+++ b/EJEMPLOS EN EXCEL/BONILLA/R4XL-SVM.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="M:\R4XCL\LIBRERIA\EJEMPLOS EN EXCEL\BONILLA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FB81DAC-527D-458B-9DB7-6984677117C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2046E221-3121-4304-8F42-C67B785EE641}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-83" yWindow="0" windowWidth="14558" windowHeight="15563" xr2:uid="{501212C7-ACB0-498E-BD31-969CA01024C6}"/>
+    <workbookView xWindow="-83" yWindow="0" windowWidth="14566" windowHeight="15563" xr2:uid="{501212C7-ACB0-498E-BD31-969CA01024C6}"/>
   </bookViews>
   <sheets>
     <sheet name="Support Vector Machine" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="311" uniqueCount="16">
   <si>
     <t>setosa</t>
   </si>
@@ -100,6 +100,12 @@
   </si>
   <si>
     <t>r</t>
+  </si>
+  <si>
+    <t>Tipo de modelo</t>
+  </si>
+  <si>
+    <t>Kernel</t>
   </si>
 </sst>
 </file>
@@ -147,7 +153,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -155,11 +161,26 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -170,18 +191,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -519,51 +543,52 @@
   <dimension ref="A1:O151"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="J1" sqref="J1"/>
+      <selection activeCell="K19" sqref="K19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="10.59765625" style="3"/>
     <col min="2" max="8" width="10.59765625" style="1"/>
-    <col min="10" max="11" width="10.59765625"/>
+    <col min="10" max="10" width="12.59765625" style="3" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.59765625"/>
     <col min="12" max="12" width="13.06640625" customWidth="1"/>
     <col min="13" max="17" width="10.59765625"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="D1" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="E1" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="F1" s="9" t="s">
+      <c r="F1" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="G1" s="9" t="s">
+      <c r="G1" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="H1" s="9" t="s">
+      <c r="H1" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="K1">
+      <c r="K1" s="10">
         <v>1</v>
       </c>
       <c r="M1" t="str" cm="1">
-        <f t="array" ref="M1:N151">_xll.R.MR_SVM(F1:F151,B1:E151,H1:H151,K1)</f>
+        <f t="array" ref="M1:N151">_xll.R.MR_SVM(F1:F151,B1:E151,H1:H151,K3,K2,K1)</f>
         <v/>
       </c>
       <c r="N1" t="str">
@@ -595,6 +620,12 @@
       <c r="H2" s="1">
         <v>0</v>
       </c>
+      <c r="J2" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="K2" s="10">
+        <v>1</v>
+      </c>
       <c r="M2" t="str">
         <v>1</v>
       </c>
@@ -626,6 +657,12 @@
       </c>
       <c r="H3" s="1">
         <v>0</v>
+      </c>
+      <c r="J3" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="K3" s="10">
+        <v>2</v>
       </c>
       <c r="M3" t="str">
         <v>2</v>
@@ -659,7 +696,7 @@
       <c r="H4" s="1">
         <v>0</v>
       </c>
-      <c r="J4" s="4"/>
+      <c r="J4" s="8"/>
       <c r="M4" t="str">
         <v>3</v>
       </c>
@@ -692,14 +729,14 @@
       <c r="H5" s="1">
         <v>0</v>
       </c>
-      <c r="L5" s="5"/>
+      <c r="L5" s="4"/>
       <c r="M5" t="str">
         <v>4</v>
       </c>
       <c r="N5" t="str">
         <v>setosa</v>
       </c>
-      <c r="O5" s="5"/>
+      <c r="O5" s="4"/>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A6" s="3">
@@ -726,14 +763,14 @@
       <c r="H6" s="1">
         <v>0</v>
       </c>
-      <c r="L6" s="5"/>
+      <c r="L6" s="4"/>
       <c r="M6" t="str">
         <v>5</v>
       </c>
       <c r="N6" t="str">
         <v>setosa</v>
       </c>
-      <c r="O6" s="5"/>
+      <c r="O6" s="4"/>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A7" s="3">
@@ -760,14 +797,14 @@
       <c r="H7" s="1">
         <v>0</v>
       </c>
-      <c r="L7" s="5"/>
+      <c r="L7" s="4"/>
       <c r="M7" t="str">
         <v>6</v>
       </c>
       <c r="N7" t="str">
         <v>setosa</v>
       </c>
-      <c r="O7" s="5"/>
+      <c r="O7" s="4"/>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A8" s="3">
@@ -890,7 +927,7 @@
       <c r="H11" s="1">
         <v>0</v>
       </c>
-      <c r="K11" s="6"/>
+      <c r="K11" s="5"/>
       <c r="M11" t="str">
         <v>10</v>
       </c>
@@ -991,7 +1028,7 @@
         <v>13</v>
       </c>
       <c r="N14" t="str">
-        <v>virginica</v>
+        <v>setosa</v>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.45">
@@ -1019,7 +1056,6 @@
       <c r="H15" s="1">
         <v>0</v>
       </c>
-      <c r="J15" s="7"/>
       <c r="M15" t="str">
         <v>14</v>
       </c>
@@ -1052,7 +1088,7 @@
       <c r="H16" s="1">
         <v>0</v>
       </c>
-      <c r="J16" s="4"/>
+      <c r="J16" s="8"/>
       <c r="M16" t="str">
         <v>15</v>
       </c>
@@ -1185,7 +1221,7 @@
         <v>19</v>
       </c>
       <c r="N20" t="str">
-        <v>virginica</v>
+        <v>setosa</v>
       </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.45">
@@ -1345,7 +1381,7 @@
         <v>24</v>
       </c>
       <c r="N25" t="str">
-        <v>virginica</v>
+        <v>setosa</v>
       </c>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.45">
@@ -1921,7 +1957,7 @@
         <v>42</v>
       </c>
       <c r="N43" t="str">
-        <v>virginica</v>
+        <v>setosa</v>
       </c>
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.45">
@@ -2401,7 +2437,7 @@
         <v>57</v>
       </c>
       <c r="N58" t="str">
-        <v>virginica</v>
+        <v>versicolor</v>
       </c>
     </row>
     <row r="59" spans="1:14" x14ac:dyDescent="0.45">
@@ -2849,7 +2885,7 @@
         <v>71</v>
       </c>
       <c r="N72" t="str">
-        <v>virginica</v>
+        <v>versicolor</v>
       </c>
     </row>
     <row r="73" spans="1:14" x14ac:dyDescent="0.45">
@@ -3073,7 +3109,7 @@
         <v>78</v>
       </c>
       <c r="N79" t="str">
-        <v>virginica</v>
+        <v>versicolor</v>
       </c>
     </row>
     <row r="80" spans="1:14" x14ac:dyDescent="0.45">
@@ -3265,7 +3301,7 @@
         <v>84</v>
       </c>
       <c r="N85" t="str">
-        <v>virginica</v>
+        <v>versicolor</v>
       </c>
     </row>
     <row r="86" spans="1:14" x14ac:dyDescent="0.45">
@@ -4001,7 +4037,7 @@
         <v>107</v>
       </c>
       <c r="N108" t="str">
-        <v>versicolor</v>
+        <v>virginica</v>
       </c>
     </row>
     <row r="109" spans="1:14" x14ac:dyDescent="0.45">
@@ -4417,7 +4453,7 @@
         <v>120</v>
       </c>
       <c r="N121" t="str">
-        <v>versicolor</v>
+        <v>virginica</v>
       </c>
     </row>
     <row r="122" spans="1:14" x14ac:dyDescent="0.45">
